--- a/db/real_trade_db - Copy (4).xlsx
+++ b/db/real_trade_db - Copy (4).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA247"/>
+  <dimension ref="A1:AA358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>stop_limit_sell_order_id</t>
+          <t>stop_limit_order_id</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -765,7 +769,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -862,7 +870,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -955,7 +967,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1052,7 +1068,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1149,7 +1169,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1246,7 +1270,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1343,7 +1371,11 @@
           <t>E. Australia Standard Time</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -23748,7 +23780,7 @@
         </is>
       </c>
       <c r="D246" s="2" t="n">
-        <v>45562.98626919377</v>
+        <v>45562.98626918982</v>
       </c>
       <c r="E246" t="n">
         <v>109.97</v>
@@ -23837,7 +23869,7 @@
         </is>
       </c>
       <c r="D247" s="2" t="n">
-        <v>45562.98797988215</v>
+        <v>45562.98797988426</v>
       </c>
       <c r="E247" t="n">
         <v>399.92</v>
@@ -23849,21 +23881,23 @@
         <v>1.01</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>45563.02903369213</v>
+      </c>
+      <c r="I247" t="n">
+        <v>398.91</v>
+      </c>
       <c r="J247" t="n">
-        <v>0</v>
+        <v>3191.28</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L247" t="n">
         <v>8</v>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N247" t="n">
@@ -23879,7 +23913,7 @@
         <v>0.3</v>
       </c>
       <c r="R247" t="n">
-        <v>0</v>
+        <v>-10.19999999999993</v>
       </c>
       <c r="S247" t="inlineStr">
         <is>
@@ -23918,6 +23952,9619 @@
         </is>
       </c>
       <c r="AA247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>264</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45562.99194186342</v>
+      </c>
+      <c r="E248" t="n">
+        <v>84.02</v>
+      </c>
+      <c r="F248" t="n">
+        <v>3276.78</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H248" s="2" t="n">
+        <v>45563.03969841435</v>
+      </c>
+      <c r="I248" t="n">
+        <v>84.23</v>
+      </c>
+      <c r="J248" t="n">
+        <v>3284.97</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="L248" t="n">
+        <v>39</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P248" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R248" t="n">
+        <v>5.870000000000054</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>FA1987CC18D644A000</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>FA1987CCF00444A000</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>FA1987CCF06AFB2000</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>FA1987CC195E84A000</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>drowdown930</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>mv :-1.61, mv_2m:-3.35,    mv_5m : -5.13, mv_30m : 8.65, mv_60m: -2.78</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>265</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45562.9981156713</v>
+      </c>
+      <c r="E249" t="n">
+        <v>193.23</v>
+      </c>
+      <c r="F249" t="n">
+        <v>3091.68</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H249" s="2" t="n">
+        <v>45563.06020974537</v>
+      </c>
+      <c r="I249" t="n">
+        <v>194.51</v>
+      </c>
+      <c r="J249" t="n">
+        <v>3112.16</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L249" t="n">
+        <v>16</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R249" t="n">
+        <v>18.30000000000002</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>FA1987CE21BE3B2000</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>FA1987CEBB1E3B2000</t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr">
+        <is>
+          <t>FA1987CEBB8CBB2000</t>
+        </is>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>FA1987CE2234C4A000</t>
+        </is>
+      </c>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>drowdown930</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>mv :-0.48, mv_2m:0.13,    mv_5m : 4.50, mv_30m : 11.05, mv_60m: 8.03</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>266</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45563.0085772801</v>
+      </c>
+      <c r="E250" t="n">
+        <v>89.63</v>
+      </c>
+      <c r="F250" t="n">
+        <v>3226.68</v>
+      </c>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" s="2" t="n">
+        <v>45563.06948899305</v>
+      </c>
+      <c r="I250" t="n">
+        <v>89.69</v>
+      </c>
+      <c r="J250" t="n">
+        <v>3228.84</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L250" t="n">
+        <v>36</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P250" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R250" t="inlineStr"/>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>FA1987D1946FFB2000</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>FA1987D1D4B77B2000</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr">
+        <is>
+          <t>FA1987D1D51B84A000</t>
+        </is>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>FA1987D194F6FB2000</t>
+        </is>
+      </c>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>drowdown930</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>mv :4.68, mv_2m:-1.12,    mv_5m : -0.58, mv_30m : 6.32, mv_60m: 25.48</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>267</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45563.07045261574</v>
+      </c>
+      <c r="E251" t="n">
+        <v>253.67</v>
+      </c>
+      <c r="F251" t="n">
+        <v>3297.71</v>
+      </c>
+      <c r="G251" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H251" s="2" t="n">
+        <v>45563.11556253472</v>
+      </c>
+      <c r="I251" t="n">
+        <v>252.55</v>
+      </c>
+      <c r="J251" t="n">
+        <v>3283.15</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L251" t="n">
+        <v>13</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P251" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R251" t="n">
+        <v>-16.69099999999995</v>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>FA1987E5F9507B2000</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>FA1987E61C41BB2000</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>FA1987E61CA944A000</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>FA1987E5F9C084A000</t>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>1130_2</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>mv :-0.95, mv_2m:0.05,    mv_5m : 0.13, mv_30m : 0.29, mv_60m: -0.01</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>268</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45563.07051288195</v>
+      </c>
+      <c r="E252" t="n">
+        <v>192.48</v>
+      </c>
+      <c r="F252" t="n">
+        <v>3079.68</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H252" s="2" t="n">
+        <v>45563.11966221065</v>
+      </c>
+      <c r="I252" t="n">
+        <v>192.36</v>
+      </c>
+      <c r="J252" t="n">
+        <v>3077.76</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L252" t="n">
+        <v>16</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P252" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R252" t="n">
+        <v>-4.099999999999618</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>FA1987E5FE65C4A000</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>FA1987E61D4EBB2000</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr">
+        <is>
+          <t>FA1987E61DC8BB2000</t>
+        </is>
+      </c>
+      <c r="W252" t="inlineStr">
+        <is>
+          <t>FA1987E5FEE184A000</t>
+        </is>
+      </c>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>1130_2</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>mv :-0.97, mv_2m:0.03,    mv_5m : 0.14, mv_30m : 0.44, mv_60m: 0.30</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>269</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45563.11652928241</v>
+      </c>
+      <c r="E253" t="n">
+        <v>624.05</v>
+      </c>
+      <c r="F253" t="n">
+        <v>3120.25</v>
+      </c>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" s="2" t="n">
+        <v>45563.19908987269</v>
+      </c>
+      <c r="I253" t="n">
+        <v>621.83</v>
+      </c>
+      <c r="J253" t="n">
+        <v>3109.15</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L253" t="n">
+        <v>5</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R253" t="inlineStr"/>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>FA1987F52904C4A000</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>FA1987F557CB04A000</t>
+        </is>
+      </c>
+      <c r="V253" t="inlineStr">
+        <is>
+          <t>FA1987F558313B2000</t>
+        </is>
+      </c>
+      <c r="W253" t="inlineStr">
+        <is>
+          <t>FA1987F5298C3B2000</t>
+        </is>
+      </c>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>1220_1300_reverse_point</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>mv :-0.75, mv_2m:0.25,    mv_5m : 0.60, mv_30m : -0.35, mv_60m: -0.85</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>270</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45563.11679908565</v>
+      </c>
+      <c r="E254" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="F254" t="n">
+        <v>3253.75</v>
+      </c>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" s="2" t="n">
+        <v>45563.18746946759</v>
+      </c>
+      <c r="I254" t="n">
+        <v>170.9008</v>
+      </c>
+      <c r="J254" t="n">
+        <v>3247.1152</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L254" t="n">
+        <v>19</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R254" t="inlineStr"/>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>FA1987F53FC83B2000</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>FA1987F556A744A000</t>
+        </is>
+      </c>
+      <c r="V254" t="inlineStr">
+        <is>
+          <t>FA1987F5572184A000</t>
+        </is>
+      </c>
+      <c r="W254" t="inlineStr">
+        <is>
+          <t>FA1987F5404084A000</t>
+        </is>
+      </c>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>1220_1300_reverse_point</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>mv :-0.65, mv_2m:0.35,    mv_5m : 1.23, mv_30m : -1.73, mv_60m: -3.60</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>271</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45563.15099307871</v>
+      </c>
+      <c r="E255" t="n">
+        <v>108.65</v>
+      </c>
+      <c r="F255" t="n">
+        <v>3259.5</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H255" s="2" t="n">
+        <v>45563.1993315162</v>
+      </c>
+      <c r="I255" t="n">
+        <v>109.19</v>
+      </c>
+      <c r="J255" t="n">
+        <v>3275.7</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L255" t="n">
+        <v>30</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R255" t="n">
+        <v>13.93999999999982</v>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>FA19880084E044A000</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr">
+        <is>
+          <t>FA198802AD47FB2000</t>
+        </is>
+      </c>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>mv :-1.11, mv_2m:-0.17,    mv_5m : -0.47, mv_30m : -0.41, mv_60m: -0.16</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>272</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45563.16263891204</v>
+      </c>
+      <c r="E256" t="n">
+        <v>109.3679</v>
+      </c>
+      <c r="F256" t="n">
+        <v>3281.037</v>
+      </c>
+      <c r="G256" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H256" s="2" t="n">
+        <v>45563.1993315162</v>
+      </c>
+      <c r="I256" t="n">
+        <v>109.19</v>
+      </c>
+      <c r="J256" t="n">
+        <v>3275.7</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L256" t="n">
+        <v>30</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P256" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R256" t="n">
+        <v>-7.596999999999989</v>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>FA1988045B827B2000</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr"/>
+      <c r="V256" t="inlineStr"/>
+      <c r="W256" t="inlineStr"/>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>mv :-1.25, mv_2m:-0.45,    mv_5m : 0.06, mv_30m : 2.21, mv_60m: 0.45</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>274</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45565.98365070602</v>
+      </c>
+      <c r="E257" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2957.4</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H257" s="2" t="n">
+        <v>45566.02485512732</v>
+      </c>
+      <c r="I257" t="n">
+        <v>491.17</v>
+      </c>
+      <c r="J257" t="n">
+        <v>2947.02</v>
+      </c>
+      <c r="K257" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>6</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P257" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R257" t="n">
+        <v>-12.48999999999965</v>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>FA198BA6224684A000</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>FA198BA644EC84A000</t>
+        </is>
+      </c>
+      <c r="V257" t="inlineStr">
+        <is>
+          <t>FA198BA6455444A000</t>
+        </is>
+      </c>
+      <c r="W257" t="inlineStr">
+        <is>
+          <t>FA198BA6229784A000</t>
+        </is>
+      </c>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>930-47</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>mv :-3.92, mv_2m:-2.66,    mv_5m : -9.42, mv_30m : -15.83, mv_60m: -21.93</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>275</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45565.98651003472</v>
+      </c>
+      <c r="E258" t="n">
+        <v>134.76</v>
+      </c>
+      <c r="F258" t="n">
+        <v>3099.48</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H258" s="2" t="n">
+        <v>45566.03043569445</v>
+      </c>
+      <c r="I258" t="n">
+        <v>135.24</v>
+      </c>
+      <c r="J258" t="n">
+        <v>3110.52</v>
+      </c>
+      <c r="K258" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L258" t="n">
+        <v>23</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P258" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R258" t="n">
+        <v>8.820000000000872</v>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>FA198BA7138504A000</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>FA198BA72C157B2000</t>
+        </is>
+      </c>
+      <c r="V258" t="inlineStr">
+        <is>
+          <t>FA198BA72C6BFB2000</t>
+        </is>
+      </c>
+      <c r="W258" t="inlineStr">
+        <is>
+          <t>FA198BA713E2BB2000</t>
+        </is>
+      </c>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>930-47</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>mv :-3.44, mv_2m:-0.19,    mv_5m : -0.80, mv_30m : -5.77, mv_60m: -8.20</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>276</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45565.99239466435</v>
+      </c>
+      <c r="E259" t="n">
+        <v>465.08</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2790.48</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H259" s="2" t="n">
+        <v>45566.03631399306</v>
+      </c>
+      <c r="I259" t="n">
+        <v>463.4</v>
+      </c>
+      <c r="J259" t="n">
+        <v>2780.4</v>
+      </c>
+      <c r="K259" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>6</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P259" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R259" t="n">
+        <v>-12.19000000000038</v>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>FA198BA904173B2000</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>FA198BA968913B2000</t>
+        </is>
+      </c>
+      <c r="V259" t="inlineStr">
+        <is>
+          <t>FA198BA968E144A000</t>
+        </is>
+      </c>
+      <c r="W259" t="inlineStr">
+        <is>
+          <t>FA198BA904E004A000</t>
+        </is>
+      </c>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>drowdown930</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>mv :-4.61, mv_2m:-0.47,    mv_5m : 1.67, mv_30m : -5.94, mv_60m: -12.80</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>278</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45566.0983125463</v>
+      </c>
+      <c r="E260" t="n">
+        <v>50.8598</v>
+      </c>
+      <c r="F260" t="n">
+        <v>3153.3076</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H260" s="2" t="n">
+        <v>45566.38237391203</v>
+      </c>
+      <c r="I260" t="n">
+        <v>50.95048387096774</v>
+      </c>
+      <c r="J260" t="n">
+        <v>3158.93</v>
+      </c>
+      <c r="K260" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L260" t="n">
+        <v>62</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P260" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R260" t="n">
+        <v>3.132400000000198</v>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>FA198BCBECF93B2000</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>FA198BCC167EC4A000</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>FA198BCC16EDFB2000</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>FA198BCBED6CBB2000</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>1220_1300_reverse_point</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>mv :5.58, mv_2m:0.00,    mv_5m : -0.05, mv_30m : -0.05, mv_60m: -0.04</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>279</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45567.14782243055</v>
+      </c>
+      <c r="E261" t="n">
+        <v>167.49</v>
+      </c>
+      <c r="F261" t="n">
+        <v>3182.31</v>
+      </c>
+      <c r="G261" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H261" s="2" t="n">
+        <v>45559.03434391204</v>
+      </c>
+      <c r="I261" t="n">
+        <v>166.546</v>
+      </c>
+      <c r="J261" t="n">
+        <v>3164.374</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L261" t="n">
+        <v>19</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P261" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R261" t="n">
+        <v>-20.1360000000006</v>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>FA198D25D5413B2000</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr"/>
+      <c r="V261" t="inlineStr"/>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>FA198D2F9A063B2000</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>mv :-29.41, mv_2m:4.38,    mv_5m : 5.78, mv_30m : -16.31, mv_60m: -17.12</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>280</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45568.14975181713</v>
+      </c>
+      <c r="E262" t="n">
+        <v>504</v>
+      </c>
+      <c r="F262" t="n">
+        <v>3024</v>
+      </c>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" s="2" t="n">
+        <v>45568.28161487269</v>
+      </c>
+      <c r="I262" t="n">
+        <v>504.1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3024.6</v>
+      </c>
+      <c r="K262" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>6</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P262" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>FA198E700F1AFB2000</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr">
+        <is>
+          <t>FA198E8D0876BB2000</t>
+        </is>
+      </c>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>mv :-7.90, mv_2m:0.09,    mv_5m : -0.47, mv_30m : 2.10, mv_60m: -3.49</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>281</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45569.15603614583</v>
+      </c>
+      <c r="E263" t="n">
+        <v>240.8</v>
+      </c>
+      <c r="F263" t="n">
+        <v>3130.4</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H263" s="2" t="n">
+        <v>45569.21502125</v>
+      </c>
+      <c r="I263" t="n">
+        <v>241.04</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3133.52</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L263" t="n">
+        <v>13</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P263" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0.9599999999998905</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>FA198FBBB8587B2000</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>FA198FC0BFD2BB2000</t>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>mv :-4.35, mv_2m:0.15,    mv_5m : -1.55, mv_30m : -1.18, mv_60m: -6.91</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>282</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45569.17677320602</v>
+      </c>
+      <c r="E264" t="n">
+        <v>58.2294</v>
+      </c>
+      <c r="F264" t="n">
+        <v>3202.617</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H264" s="2" t="n">
+        <v>45569.2853190625</v>
+      </c>
+      <c r="I264" t="n">
+        <v>58.49</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3216.95</v>
+      </c>
+      <c r="K264" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L264" t="n">
+        <v>55</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P264" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R264" t="n">
+        <v>11.91300000000054</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>FA198FC28E0CBB2000</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>FA198FD6E39D44A000</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>mv :-4.44, mv_2m:-0.15,    mv_5m : 0.23, mv_30m : 3.86, mv_60m: 4.59</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>283</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45569.98352119213</v>
+      </c>
+      <c r="E265" t="n">
+        <v>187.68</v>
+      </c>
+      <c r="F265" t="n">
+        <v>3190.56</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H265" s="2" t="n">
+        <v>45570.0229878588</v>
+      </c>
+      <c r="I265" t="n">
+        <v>186.67</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3173.39</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L265" t="n">
+        <v>17</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P265" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R265" t="n">
+        <v>-19.35000000000007</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>FA1990CC7369BB2000</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>FA1990CC91177B2000</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>FA1990CC91AA44A000</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>FA1990CC73D5C4A000</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>930-47</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>mv :-3.93, mv_2m:0.39,    mv_5m : -0.15, mv_30m : -1.21, mv_60m: -0.63</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>284</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45569.98570741898</v>
+      </c>
+      <c r="E266" t="n">
+        <v>53.53</v>
+      </c>
+      <c r="F266" t="n">
+        <v>3211.8</v>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" s="2" t="n">
+        <v>45570.03256047454</v>
+      </c>
+      <c r="I266" t="n">
+        <v>53.45</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3207</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L266" t="n">
+        <v>60</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P266" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R266" t="inlineStr"/>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>FA1990CD2BE8C4A000</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>FA1990CD48CA04A000</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>FA1990CD493044A000</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>FA1990CD2C5BFB2000</t>
+        </is>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>930-47</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>mv :-7.94, mv_2m:-4.12,    mv_5m : -4.60, mv_30m : 9.32, mv_60m: 10.84</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>285</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45570.14718327546</v>
+      </c>
+      <c r="E267" t="n">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="F267" t="n">
+        <v>3180.98</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H267" s="2" t="n">
+        <v>45570.28642246528</v>
+      </c>
+      <c r="I267" t="n">
+        <v>84.0209</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3192.7942</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L267" t="n">
+        <v>38</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P267" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R267" t="n">
+        <v>9.514200000000255</v>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>FA1991026457BB2000</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>FA19911EFF09C4A000</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>mv :-17.91, mv_2m:-0.26,    mv_5m : -0.73, mv_30m : -0.98, mv_60m: 10.55</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+      <c r="AA267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>286</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45573.19115484953</v>
+      </c>
+      <c r="E268" t="n">
+        <v>709.04</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2836.16</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="n">
+        <v>45574.07505209491</v>
+      </c>
+      <c r="I268" t="n">
+        <v>713.96</v>
+      </c>
+      <c r="J268" t="n">
+        <v>2855.84</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L268" t="n">
+        <v>4</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P268" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R268" t="n">
+        <v>17.59000000000029</v>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>FA1994DFEAE7FB2000</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>FA1995F65EB8C4A000</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>mv :-1.79, mv_2m:-0.06,    mv_5m : -0.87, mv_30m : -2.92, mv_60m: -2.07</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>287</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45574.19669590278</v>
+      </c>
+      <c r="E269" t="n">
+        <v>111.33</v>
+      </c>
+      <c r="F269" t="n">
+        <v>3228.57</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H269" s="2" t="n">
+        <v>45575.28887385417</v>
+      </c>
+      <c r="I269" t="n">
+        <v>111.0917</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3221.6593</v>
+      </c>
+      <c r="K269" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L269" t="n">
+        <v>29</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P269" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R269" t="n">
+        <v>-9.170699999999906</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>FA19962B5654BB2000</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr"/>
+      <c r="V269" t="inlineStr"/>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>FA1997863FE444A000</t>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>mv :-3.95, mv_2m:0.50,    mv_5m : 0.45, mv_30m : 2.56, mv_60m: -3.08</t>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>290</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45580.18006612269</v>
+      </c>
+      <c r="E270" t="n">
+        <v>82.5492</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3136.8696</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H270" s="2" t="n">
+        <v>45580.28755964121</v>
+      </c>
+      <c r="I270" t="n">
+        <v>82.66030000000001</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3141.0914</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>38</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P270" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1.921800000000257</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>FA199DDF65447B2000</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>FA199DE6C57A44A000</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>mv :-1.14, mv_2m:-0.15,      mv_5m : -0.21, mv_30m : -0.60, mv_60m: -0.05</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>293</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45581.15869940972</v>
+      </c>
+      <c r="E271" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3165.16</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H271" s="2" t="n">
+        <v>45581.28762678241</v>
+      </c>
+      <c r="I271" t="n">
+        <v>59.9001</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3174.7053</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L271" t="n">
+        <v>53</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P271" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R271" t="n">
+        <v>7.294300000000224</v>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>FA199F21F15A44A000</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>FA199F2BC9BBBB2000</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>mv :-22.67, mv_2m:-0.50,      mv_5m : -1.72, mv_30m : 1.23, mv_60m: 3.43</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>295</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45582.17252115741</v>
+      </c>
+      <c r="E272" t="n">
+        <v>42.915</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3175.71</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H272" s="2" t="n">
+        <v>45582.24687973379</v>
+      </c>
+      <c r="I272" t="n">
+        <v>42.975</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3180.15</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L272" t="n">
+        <v>74</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P272" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1.920000000000055</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>FA19A070169E04A000</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>FA19A07897EE7B2000</t>
+        </is>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>mv :-1.77, mv_2m:-0.15,      mv_5m : -0.28, mv_30m : -1.13, mv_60m: -2.30</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>298</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45582.2124253125</v>
+      </c>
+      <c r="E273" t="n">
+        <v>287.83</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3166.13</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H273" s="2" t="n">
+        <v>45582.28688711805</v>
+      </c>
+      <c r="I273" t="n">
+        <v>288.39</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3172.29</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L273" t="n">
+        <v>11</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R273" t="n">
+        <v>4.02000000000031</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>FA19A07D3D8B3B2000</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>FA19A081561684A000</t>
+        </is>
+      </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>mv :-1.50, mv_2m:0.41,      mv_5m : 0.26, mv_30m : 0.60, mv_60m: 0.35</t>
+        </is>
+      </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>301</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>45583.1528390625</v>
+      </c>
+      <c r="E274" t="n">
+        <v>401.62</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3212.96</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H274" s="2" t="n">
+        <v>45583.28773255787</v>
+      </c>
+      <c r="I274" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3210.8</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L274" t="n">
+        <v>8</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P274" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R274" t="n">
+        <v>-4.279999999999855</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>FA19A1B3310AC4A000</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>FA19A1D24FB7BB2000</t>
+        </is>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>mv :0.89, mv_2m:0.81,      mv_5m : 1.66, mv_30m : -1.27, mv_60m: -1.63</t>
+        </is>
+      </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>302</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>45583.16485706018</v>
+      </c>
+      <c r="E275" t="n">
+        <v>328.87</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2959.83</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H275" s="2" t="n">
+        <v>45588.06772333333</v>
+      </c>
+      <c r="I275" t="n">
+        <v>330.9</v>
+      </c>
+      <c r="J275" t="n">
+        <v>2978.1</v>
+      </c>
+      <c r="K275" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L275" t="n">
+        <v>9</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P275" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R275" t="n">
+        <v>16.13999999999998</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>FA19A1B7270C7B2000</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>FA19A7F9C8BF3B2000</t>
+        </is>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>mv :3.49, mv_2m:0.07,      mv_5m : 0.03, mv_30m : 0.88, mv_60m: 0.35</t>
+        </is>
+      </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>419</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>45588.1565713426</v>
+      </c>
+      <c r="E276" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3245.76</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H276" s="2" t="n">
+        <v>45588.22512439814</v>
+      </c>
+      <c r="I276" t="n">
+        <v>66.6417</v>
+      </c>
+      <c r="J276" t="n">
+        <v>3265.4433</v>
+      </c>
+      <c r="K276" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L276" t="n">
+        <v>49</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P276" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R276" t="n">
+        <v>17.28330000000014</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>FA19A8245ED0BB2000</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>FA19A827B2FBC4A000</t>
+        </is>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>mv :-2.86, mv_2m:-0.04,      mv_5m : -0.07, mv_30m : 0.20, mv_60m: 0.97</t>
+        </is>
+      </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>420</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>45588.1864265162</v>
+      </c>
+      <c r="E277" t="n">
+        <v>406.81</v>
+      </c>
+      <c r="F277" t="n">
+        <v>3254.48</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H277" s="2" t="n">
+        <v>45588.28713857639</v>
+      </c>
+      <c r="I277" t="n">
+        <v>406.58</v>
+      </c>
+      <c r="J277" t="n">
+        <v>3252.64</v>
+      </c>
+      <c r="K277" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L277" t="n">
+        <v>8</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P277" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R277" t="n">
+        <v>-3.960000000000146</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>FA19A82E35E1C4A000</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>FA19A842441AC4A000</t>
+        </is>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>mv :-3.24, mv_2m:0.00,      mv_5m : -0.02, mv_30m : 0.69, mv_60m: 0.64</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>427</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>45588.71148567129</v>
+      </c>
+      <c r="E278" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="F278" t="n">
+        <v>3195.28</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H278" s="2" t="n">
+        <v>45589.33430997685</v>
+      </c>
+      <c r="I278" t="n">
+        <v>76.26000000000001</v>
+      </c>
+      <c r="J278" t="n">
+        <v>3355.44</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L278" t="n">
+        <v>44</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O278" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P278" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R278" t="n">
+        <v>157.8199999999999</v>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>FA19A8DB43D0C4A000</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>FA19A92567207B2000</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.78,      mv_5m : 0.58, mv_30m : -7.86, mv_60m: -11.81</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>477</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>45590.471524375</v>
+      </c>
+      <c r="E279" t="n">
+        <v>299.86</v>
+      </c>
+      <c r="F279" t="n">
+        <v>3298.46</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H279" s="2" t="n">
+        <v>45720.29792387731</v>
+      </c>
+      <c r="I279" t="n">
+        <v>302.86</v>
+      </c>
+      <c r="J279" t="n">
+        <v>3331.46</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L279" t="n">
+        <v>11</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O279" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P279" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R279" t="n">
+        <v>30.86</v>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>FA19AB1F5B0A84A000</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>FA19ABD6755644A000</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.69,      mv_5m : -0.48, mv_30m : -6.13, mv_60m: -4.11</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA279" t="inlineStr">
+        <is>
+          <t>FA1A51CAB433C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>483</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>45595.62228261574</v>
+      </c>
+      <c r="E280" t="n">
+        <v>187.91</v>
+      </c>
+      <c r="F280" t="n">
+        <v>3194.47</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H280" s="2" t="n">
+        <v>45608.08796542824</v>
+      </c>
+      <c r="I280" t="n">
+        <v>189.14</v>
+      </c>
+      <c r="J280" t="n">
+        <v>3215.38</v>
+      </c>
+      <c r="K280" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L280" t="n">
+        <v>17</v>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N280" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O280" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="P280" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R280" t="n">
+        <v>18.72999999999985</v>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>FA19B1C0FE447B2000</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>FA19B211587984A000</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.81,      mv_5m : 0.60, mv_30m : 2.50, mv_60m: 1.31</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>FA19BC9EEC91C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>497</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>45595.62379175926</v>
+      </c>
+      <c r="E281" t="n">
+        <v>543.65</v>
+      </c>
+      <c r="F281" t="n">
+        <v>3261.9</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H281" s="2" t="n">
+        <v>45603.06136862269</v>
+      </c>
+      <c r="I281" t="n">
+        <v>548.54</v>
+      </c>
+      <c r="J281" t="n">
+        <v>3291.24</v>
+      </c>
+      <c r="K281" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L281" t="n">
+        <v>6</v>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O281" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P281" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R281" t="n">
+        <v>27.21999999999969</v>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>FA19B1C17D92C4A000</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>FA19B251DFEC3B2000</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:1.82,      mv_5m : 3.56, mv_30m : -3.69, mv_60m: -8.23</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA281" t="inlineStr">
+        <is>
+          <t>FA19BB1619D47B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>506</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>45603.06486846065</v>
+      </c>
+      <c r="E282" t="n">
+        <v>457.82</v>
+      </c>
+      <c r="F282" t="n">
+        <v>3204.74</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H282" s="2" t="n">
+        <v>45608.05973159722</v>
+      </c>
+      <c r="I282" t="n">
+        <v>480.72</v>
+      </c>
+      <c r="J282" t="n">
+        <v>3365.04</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L282" t="n">
+        <v>7</v>
+      </c>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N282" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O282" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="P282" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R282" t="n">
+        <v>158.1700000000002</v>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>FA19BB55FE8344A000</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>FA19BC4DF9DCC4A000</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>mv :-2.60, mv_2m:-1.60,      mv_5m : -3.79, mv_30m : 8.25, mv_60m: 10.76</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA282" t="inlineStr">
+        <is>
+          <t>FA19BC548E9684A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>543</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="D283" s="2" t="n">
+        <v>45608.20285818287</v>
+      </c>
+      <c r="E283" t="n">
+        <v>58.78</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3291.68</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H283" s="2" t="n">
+        <v>45608.37091885417</v>
+      </c>
+      <c r="I283" t="n">
+        <v>59.0679</v>
+      </c>
+      <c r="J283" t="n">
+        <v>3307.8024</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L283" t="n">
+        <v>56</v>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N283" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O283" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P283" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R283" t="n">
+        <v>13.7024000000002</v>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>FA19C1F36C4CFB2000</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>FA19C22AE17E04A000</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>mv :4.89, mv_2m:-0.14,      mv_5m : -0.45, mv_30m : -1.24, mv_60m: -3.79</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>547</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D284" s="2" t="n">
+        <v>45608.23593430556</v>
+      </c>
+      <c r="E284" t="n">
+        <v>58.6499</v>
+      </c>
+      <c r="F284" t="n">
+        <v>3284.3944</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H284" s="2" t="n">
+        <v>45608.38557145833</v>
+      </c>
+      <c r="I284" t="n">
+        <v>58.65</v>
+      </c>
+      <c r="J284" t="n">
+        <v>3284.4</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L284" t="n">
+        <v>56</v>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N284" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O284" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P284" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R284" t="n">
+        <v>-2.414400000000041</v>
+      </c>
+      <c r="S284" t="inlineStr">
+        <is>
+          <t>FA19C1FE5316FB2000</t>
+        </is>
+      </c>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr">
+        <is>
+          <t>FA19C22B8F8C7B2000</t>
+        </is>
+      </c>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>mv :-2.30, mv_2m:0.42,      mv_5m : 1.55, mv_30m : -2.25, mv_60m: -8.51</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>554</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="D285" s="2" t="n">
+        <v>45608.37442633102</v>
+      </c>
+      <c r="E285" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="F285" t="n">
+        <v>3266</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H285" s="2" t="n">
+        <v>45621.4950193287</v>
+      </c>
+      <c r="I285" t="n">
+        <v>171.47</v>
+      </c>
+      <c r="J285" t="n">
+        <v>3429.4</v>
+      </c>
+      <c r="K285" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L285" t="n">
+        <v>20</v>
+      </c>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N285" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O285" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="P285" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R285" t="n">
+        <v>161.1900000000001</v>
+      </c>
+      <c r="S285" t="inlineStr">
+        <is>
+          <t>FA19C22BF86844A000</t>
+        </is>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>FA19C4261177FB2000</t>
+        </is>
+      </c>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>mv :-0.64, mv_2m:0.36,      mv_5m : -1.27, mv_30m : 7.04, mv_60m: 5.97</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA285" t="inlineStr">
+        <is>
+          <t>FA19D3C64FBC3B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>586</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="D286" s="2" t="n">
+        <v>45609.15737335648</v>
+      </c>
+      <c r="E286" t="n">
+        <v>156.2898</v>
+      </c>
+      <c r="F286" t="n">
+        <v>3282.0858</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H286" s="2" t="n">
+        <v>45611.11083653935</v>
+      </c>
+      <c r="I286" t="n">
+        <v>156.77</v>
+      </c>
+      <c r="J286" t="n">
+        <v>3292.17</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L286" t="n">
+        <v>21</v>
+      </c>
+      <c r="M286" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N286" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O286" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P286" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R286" t="n">
+        <v>7.864200000000237</v>
+      </c>
+      <c r="S286" t="inlineStr">
+        <is>
+          <t>FA19C32E05927B2000</t>
+        </is>
+      </c>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr">
+        <is>
+          <t>FA19C42610E4BB2000</t>
+        </is>
+      </c>
+      <c r="W286" t="inlineStr">
+        <is>
+          <t>FA19C32E060A04A000</t>
+        </is>
+      </c>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>maxminnorm</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>mv :-11.36, mv_2m:1.21,      mv_5m : 1.48, mv_30m : -2.59, mv_60m: -13.06</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>588</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="D287" s="2" t="n">
+        <v>45611.14399469907</v>
+      </c>
+      <c r="E287" t="n">
+        <v>801.62</v>
+      </c>
+      <c r="F287" t="n">
+        <v>3206.48</v>
+      </c>
+      <c r="G287" t="n">
+        <v>1</v>
+      </c>
+      <c r="H287" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
+        <v>4</v>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N287" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O287" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P287" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R287" t="n">
+        <v>0</v>
+      </c>
+      <c r="S287" t="inlineStr">
+        <is>
+          <t>FA19C5BCCAB784A000</t>
+        </is>
+      </c>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr">
+        <is>
+          <t>FA19CA7E48C63B2000</t>
+        </is>
+      </c>
+      <c r="W287" t="inlineStr">
+        <is>
+          <t>FA19CA7E49C684A000</t>
+        </is>
+      </c>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t>speed_norm100</t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>mv :-5.37, mv_2m:0.39,      mv_5m : -0.96, mv_30m : -1.48, mv_60m: 5.47</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>627</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="D288" s="2" t="n">
+        <v>45621.64159236111</v>
+      </c>
+      <c r="E288" t="n">
+        <v>89.2385</v>
+      </c>
+      <c r="F288" t="n">
+        <v>3212.586</v>
+      </c>
+      <c r="G288" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H288" s="2" t="n">
+        <v>45623.05978201389</v>
+      </c>
+      <c r="I288" t="n">
+        <v>89.43000000000001</v>
+      </c>
+      <c r="J288" t="n">
+        <v>3219.48</v>
+      </c>
+      <c r="K288" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L288" t="n">
+        <v>36</v>
+      </c>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N288" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O288" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P288" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R288" t="n">
+        <v>4.594000000000688</v>
+      </c>
+      <c r="S288" t="inlineStr">
+        <is>
+          <t>FA19D400F44804A000</t>
+        </is>
+      </c>
+      <c r="T288" t="inlineStr"/>
+      <c r="U288" t="inlineStr"/>
+      <c r="V288" t="inlineStr"/>
+      <c r="W288" t="inlineStr">
+        <is>
+          <t>FA19D4E3E48C44A000</t>
+        </is>
+      </c>
+      <c r="X288" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y288" t="inlineStr">
+        <is>
+          <t>mv :2.71, mv_2m:-0.26,      mv_5m : -0.91, mv_30m : 3.10, mv_60m: 0.66</t>
+        </is>
+      </c>
+      <c r="Z288" t="inlineStr">
+        <is>
+          <t>Ю-Ам. восточное время (зима)</t>
+        </is>
+      </c>
+      <c r="AA288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>658</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="D289" s="2" t="n">
+        <v>45623.06535655093</v>
+      </c>
+      <c r="E289" t="n">
+        <v>633.72</v>
+      </c>
+      <c r="F289" t="n">
+        <v>3168.6</v>
+      </c>
+      <c r="G289" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H289" s="2" t="n">
+        <v>45629.14953315973</v>
+      </c>
+      <c r="I289" t="n">
+        <v>665.41</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3327.05</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L289" t="n">
+        <v>5</v>
+      </c>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O289" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="P289" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R289" t="n">
+        <v>156.3299999999998</v>
+      </c>
+      <c r="S289" t="inlineStr">
+        <is>
+          <t>FA19D515F39B7B2000</t>
+        </is>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>FA19D6234F0004A000</t>
+        </is>
+      </c>
+      <c r="U289" t="inlineStr"/>
+      <c r="V289" t="inlineStr"/>
+      <c r="W289" t="inlineStr"/>
+      <c r="X289" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y289" t="inlineStr">
+        <is>
+          <t>mv :1.79, mv_2m:2.41,      mv_5m : -5.92, mv_30m : -15.78, mv_60m: -19.64</t>
+        </is>
+      </c>
+      <c r="Z289" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA289" t="inlineStr">
+        <is>
+          <t>FA19D8A8E748FB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>664</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="D290" s="2" t="n">
+        <v>45629.19248959491</v>
+      </c>
+      <c r="E290" t="n">
+        <v>391.06</v>
+      </c>
+      <c r="F290" t="n">
+        <v>3128.48</v>
+      </c>
+      <c r="G290" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H290" s="2" t="n">
+        <v>45630.95560349537</v>
+      </c>
+      <c r="I290" t="n">
+        <v>396.01</v>
+      </c>
+      <c r="J290" t="n">
+        <v>3168.08</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L290" t="n">
+        <v>8</v>
+      </c>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N290" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O290" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P290" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R290" t="n">
+        <v>37.47999999999991</v>
+      </c>
+      <c r="S290" t="inlineStr">
+        <is>
+          <t>FA19DCF9648404A000</t>
+        </is>
+      </c>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
+      <c r="W290" t="inlineStr">
+        <is>
+          <t>FA19DE72040F04A000</t>
+        </is>
+      </c>
+      <c r="X290" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y290" t="inlineStr">
+        <is>
+          <t>mv :-2.46, mv_2m:0.51,      mv_5m : 1.99, mv_30m : 1.61, mv_60m: 2.99</t>
+        </is>
+      </c>
+      <c r="Z290" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>669</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="D291" s="2" t="n">
+        <v>45630.95957414352</v>
+      </c>
+      <c r="E291" t="n">
+        <v>162.95</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3259</v>
+      </c>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>20</v>
+      </c>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O291" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P291" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R291" t="n">
+        <v>0</v>
+      </c>
+      <c r="S291" t="inlineStr">
+        <is>
+          <t>FA19DF3FCE3904A000</t>
+        </is>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>FA19E05F074504A000</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr"/>
+      <c r="X291" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y291" t="inlineStr">
+        <is>
+          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.79, mv_30m : -2.81, mv_60m: -2.35</t>
+        </is>
+      </c>
+      <c r="Z291" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>691</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D292" s="2" t="n">
+        <v>45720.86263383102</v>
+      </c>
+      <c r="E292" t="n">
+        <v>248.56</v>
+      </c>
+      <c r="F292" t="n">
+        <v>3231.28</v>
+      </c>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" s="2" t="n">
+        <v>45721.3272547801</v>
+      </c>
+      <c r="I292" t="n">
+        <v>250.18</v>
+      </c>
+      <c r="J292" t="n">
+        <v>3252.34</v>
+      </c>
+      <c r="K292" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L292" t="n">
+        <v>13</v>
+      </c>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N292" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O292" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="P292" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q292" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R292" t="inlineStr"/>
+      <c r="S292" t="inlineStr">
+        <is>
+          <t>FA1A52FEF0BFBB2000</t>
+        </is>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>FA1A534A5302FB2000</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr"/>
+      <c r="V292" t="inlineStr"/>
+      <c r="W292" t="inlineStr"/>
+      <c r="X292" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y292" t="inlineStr">
+        <is>
+          <t>mv :-1.08, mv_2m:1.62,      mv_5m : -0.27, mv_30m : -0.24, mv_60m: 10.68</t>
+        </is>
+      </c>
+      <c r="Z292" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA292" t="inlineStr">
+        <is>
+          <t>FA1A53910C9644A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>960</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="D293" s="2" t="n">
+        <v>45721.83063457176</v>
+      </c>
+      <c r="E293" t="n">
+        <v>137.73</v>
+      </c>
+      <c r="F293" t="n">
+        <v>3167.79</v>
+      </c>
+      <c r="G293" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H293" s="2" t="n">
+        <v>45723.99273387731</v>
+      </c>
+      <c r="I293" t="n">
+        <v>138.26</v>
+      </c>
+      <c r="J293" t="n">
+        <v>3179.98</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="L293" t="n">
+        <v>23</v>
+      </c>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O293" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P293" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R293" t="n">
+        <v>9.969999999999599</v>
+      </c>
+      <c r="S293" t="inlineStr">
+        <is>
+          <t>FA1A543DFC0844A000</t>
+        </is>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>FA1A548DEDA4BB2000</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="inlineStr"/>
+      <c r="X293" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y293" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:1.51,      mv_5m : -0.07, mv_30m : -0.59, mv_60m: -23.36</t>
+        </is>
+      </c>
+      <c r="Z293" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1828</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="D294" s="2" t="n">
+        <v>45724.19343666667</v>
+      </c>
+      <c r="E294" t="n">
+        <v>53.345</v>
+      </c>
+      <c r="F294" t="n">
+        <v>3254.045</v>
+      </c>
+      <c r="G294" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H294" s="2" t="n">
+        <v>45724.19625023148</v>
+      </c>
+      <c r="I294" t="n">
+        <v>53.59</v>
+      </c>
+      <c r="J294" t="n">
+        <v>3268.99</v>
+      </c>
+      <c r="K294" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L294" t="n">
+        <v>61</v>
+      </c>
+      <c r="M294" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N294" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O294" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P294" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R294" t="n">
+        <v>12.50500000000016</v>
+      </c>
+      <c r="S294" t="inlineStr">
+        <is>
+          <t>FA1A5748BDA584A000</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr"/>
+      <c r="V294" t="inlineStr"/>
+      <c r="W294" t="inlineStr">
+        <is>
+          <t>FA1A5749E09C84A000</t>
+        </is>
+      </c>
+      <c r="X294" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y294" t="inlineStr">
+        <is>
+          <t>mv :9.17, mv_2m:3.78,      mv_5m : 8.34, mv_30m : 19.96, mv_60m: 17.91</t>
+        </is>
+      </c>
+      <c r="Z294" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1830</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>SHW</t>
+        </is>
+      </c>
+      <c r="D295" s="2" t="n">
+        <v>45724.21289275463</v>
+      </c>
+      <c r="E295" t="n">
+        <v>362.52</v>
+      </c>
+      <c r="F295" t="n">
+        <v>3262.68</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H295" s="2" t="n">
+        <v>45724.26417458333</v>
+      </c>
+      <c r="I295" t="n">
+        <v>363.89</v>
+      </c>
+      <c r="J295" t="n">
+        <v>3275.01</v>
+      </c>
+      <c r="K295" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L295" t="n">
+        <v>9</v>
+      </c>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N295" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O295" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P295" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q295" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R295" t="n">
+        <v>10.18999999999993</v>
+      </c>
+      <c r="S295" t="inlineStr">
+        <is>
+          <t>FA1A574F27503B2000</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
+      <c r="W295" t="inlineStr">
+        <is>
+          <t>FA1A575C74BDBB2000</t>
+        </is>
+      </c>
+      <c r="X295" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y295" t="inlineStr">
+        <is>
+          <t>mv :12.44, mv_2m:0.96,      mv_5m : 2.44, mv_30m : 4.50, mv_60m: 8.14</t>
+        </is>
+      </c>
+      <c r="Z295" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D296" s="2" t="n">
+        <v>45724.26974916667</v>
+      </c>
+      <c r="E296" t="n">
+        <v>432.19</v>
+      </c>
+      <c r="F296" t="n">
+        <v>3025.33</v>
+      </c>
+      <c r="G296" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H296" s="2" t="n">
+        <v>45724.31180659722</v>
+      </c>
+      <c r="I296" t="n">
+        <v>433.05</v>
+      </c>
+      <c r="J296" t="n">
+        <v>3031.35</v>
+      </c>
+      <c r="K296" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L296" t="n">
+        <v>7</v>
+      </c>
+      <c r="M296" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N296" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O296" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P296" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q296" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R296" t="n">
+        <v>3.909999999999982</v>
+      </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>FA1A5761E48544A000</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+      <c r="V296" t="inlineStr"/>
+      <c r="W296" t="inlineStr">
+        <is>
+          <t>FA1A576CF70604A000</t>
+        </is>
+      </c>
+      <c r="X296" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y296" t="inlineStr">
+        <is>
+          <t>mv :12.75, mv_2m:-1.92,      mv_5m : -3.49, mv_30m : 2.66, mv_60m: 13.67</t>
+        </is>
+      </c>
+      <c r="Z296" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>3436</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D297" s="2" t="n">
+        <v>45724.48826491898</v>
+      </c>
+      <c r="E297" t="n">
+        <v>113.21</v>
+      </c>
+      <c r="F297" t="n">
+        <v>3283.09</v>
+      </c>
+      <c r="G297" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H297" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
+        <v>29</v>
+      </c>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O297" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P297" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q297" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R297" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" t="inlineStr">
+        <is>
+          <t>FA1A57A9E9C33B2000</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
+      <c r="V297" t="inlineStr"/>
+      <c r="W297" t="inlineStr"/>
+      <c r="X297" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y297" t="inlineStr">
+        <is>
+          <t>mv :17.15, mv_2m:0.05,      mv_5m : -0.10, mv_30m : -2.52, mv_60m: -9.39</t>
+        </is>
+      </c>
+      <c r="Z297" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>3523</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D298" s="2" t="n">
+        <v>45726.85590167824</v>
+      </c>
+      <c r="E298" t="n">
+        <v>347.6</v>
+      </c>
+      <c r="F298" t="n">
+        <v>3128.4</v>
+      </c>
+      <c r="G298" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H298" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
+        <v>9</v>
+      </c>
+      <c r="M298" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N298" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O298" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P298" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q298" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R298" t="n">
+        <v>0</v>
+      </c>
+      <c r="S298" t="inlineStr">
+        <is>
+          <t>FA1A5AB642E004A000</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr"/>
+      <c r="U298" t="inlineStr"/>
+      <c r="V298" t="inlineStr"/>
+      <c r="W298" t="inlineStr"/>
+      <c r="X298" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y298" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.00, mv_30m : -0.05, mv_60m: -0.50</t>
+        </is>
+      </c>
+      <c r="Z298" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3524</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D299" s="2" t="n">
+        <v>45726.85595936343</v>
+      </c>
+      <c r="E299" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="F299" t="n">
+        <v>3297</v>
+      </c>
+      <c r="G299" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H299" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>50</v>
+      </c>
+      <c r="M299" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N299" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O299" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P299" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q299" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R299" t="n">
+        <v>0</v>
+      </c>
+      <c r="S299" t="inlineStr">
+        <is>
+          <t>FA1A5AB647BDC4A000</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr"/>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
+      <c r="W299" t="inlineStr"/>
+      <c r="X299" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y299" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.00, mv_30m : 0.27, mv_60m: -2.53</t>
+        </is>
+      </c>
+      <c r="Z299" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3525</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D300" s="2" t="n">
+        <v>45726.85601847222</v>
+      </c>
+      <c r="E300" t="n">
+        <v>99.01000000000001</v>
+      </c>
+      <c r="F300" t="n">
+        <v>3267.33</v>
+      </c>
+      <c r="G300" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H300" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>33</v>
+      </c>
+      <c r="M300" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O300" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P300" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q300" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+      <c r="S300" t="inlineStr">
+        <is>
+          <t>FA1A5AB64CB9FB2000</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr"/>
+      <c r="U300" t="inlineStr"/>
+      <c r="V300" t="inlineStr"/>
+      <c r="W300" t="inlineStr"/>
+      <c r="X300" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y300" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.00,      mv_5m : -0.01, mv_30m : 0.72, mv_60m: -1.38</t>
+        </is>
+      </c>
+      <c r="Z300" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3526</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="D301" s="2" t="n">
+        <v>45726.85618224537</v>
+      </c>
+      <c r="E301" t="n">
+        <v>167.64</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3185.16</v>
+      </c>
+      <c r="G301" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H301" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
+        <v>19</v>
+      </c>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N301" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O301" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P301" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q301" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R301" t="n">
+        <v>0</v>
+      </c>
+      <c r="S301" t="inlineStr">
+        <is>
+          <t>FA1A5AB65AAFFB2000</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr"/>
+      <c r="W301" t="inlineStr"/>
+      <c r="X301" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.04, mv_30m : -0.95, mv_60m: -3.75</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3527</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="D302" s="2" t="n">
+        <v>45726.85624177083</v>
+      </c>
+      <c r="E302" t="n">
+        <v>146.02</v>
+      </c>
+      <c r="F302" t="n">
+        <v>3212.44</v>
+      </c>
+      <c r="G302" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H302" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
+        <v>22</v>
+      </c>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N302" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O302" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P302" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q302" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R302" t="n">
+        <v>0</v>
+      </c>
+      <c r="S302" t="inlineStr">
+        <is>
+          <t>FA1A5AB65FB4FB2000</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
+      <c r="W302" t="inlineStr"/>
+      <c r="X302" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y302" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.10, mv_30m : -0.66, mv_60m: -3.27</t>
+        </is>
+      </c>
+      <c r="Z302" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>3528</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="D303" s="2" t="n">
+        <v>45726.85630340278</v>
+      </c>
+      <c r="E303" t="n">
+        <v>160.69</v>
+      </c>
+      <c r="F303" t="n">
+        <v>3213.8</v>
+      </c>
+      <c r="G303" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H303" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0</v>
+      </c>
+      <c r="L303" t="n">
+        <v>20</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O303" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P303" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q303" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R303" t="n">
+        <v>0</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>FA1A5AB664E8BB2000</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
+      <c r="W303" t="inlineStr"/>
+      <c r="X303" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y303" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.11, mv_30m : -0.65, mv_60m: -3.73</t>
+        </is>
+      </c>
+      <c r="Z303" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3529</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="D304" s="2" t="n">
+        <v>45726.85671289352</v>
+      </c>
+      <c r="E304" t="n">
+        <v>145.84</v>
+      </c>
+      <c r="F304" t="n">
+        <v>3208.48</v>
+      </c>
+      <c r="G304" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H304" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>22</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O304" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P304" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q304" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R304" t="n">
+        <v>0</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>FA1A5AB68775C4A000</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr"/>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr"/>
+      <c r="W304" t="inlineStr"/>
+      <c r="X304" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y304" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : 0.27, mv_30m : -4.10, mv_60m: -6.89</t>
+        </is>
+      </c>
+      <c r="Z304" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>3530</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D305" s="2" t="n">
+        <v>45726.85677267361</v>
+      </c>
+      <c r="E305" t="n">
+        <v>111.65</v>
+      </c>
+      <c r="F305" t="n">
+        <v>3237.85</v>
+      </c>
+      <c r="G305" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H305" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
+        <v>29</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O305" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P305" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q305" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R305" t="n">
+        <v>0</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>FA1A5AB68C8004A000</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr"/>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
+      <c r="X305" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y305" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : 0.03, mv_30m : -4.30, mv_60m: -7.06</t>
+        </is>
+      </c>
+      <c r="Z305" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3533</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D306" s="2" t="n">
+        <v>45726.85698689815</v>
+      </c>
+      <c r="E306" t="n">
+        <v>267.41</v>
+      </c>
+      <c r="F306" t="n">
+        <v>3208.92</v>
+      </c>
+      <c r="G306" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H306" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
+        <v>12</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O306" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P306" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q306" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R306" t="n">
+        <v>0</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>FA1A5AB69E9344A000</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr"/>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
+      <c r="X306" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y306" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : -0.46, mv_30m : -6.49, mv_60m: -8.77</t>
+        </is>
+      </c>
+      <c r="Z306" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>3535</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="D307" s="2" t="n">
+        <v>45726.85710215278</v>
+      </c>
+      <c r="E307" t="n">
+        <v>225.22</v>
+      </c>
+      <c r="F307" t="n">
+        <v>3153.08</v>
+      </c>
+      <c r="G307" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H307" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
+        <v>14</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O307" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P307" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q307" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R307" t="n">
+        <v>0</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>FA1A5AB6A84DC4A000</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr"/>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
+      <c r="X307" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y307" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : -0.80, mv_30m : -7.96, mv_60m: -9.53</t>
+        </is>
+      </c>
+      <c r="Z307" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3537</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D308" s="2" t="n">
+        <v>45726.85723003472</v>
+      </c>
+      <c r="E308" t="n">
+        <v>325.36</v>
+      </c>
+      <c r="F308" t="n">
+        <v>3253.6</v>
+      </c>
+      <c r="G308" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H308" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>10</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O308" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P308" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q308" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R308" t="n">
+        <v>0</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>FA1A5AB6B316BB2000</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
+      <c r="V308" t="inlineStr"/>
+      <c r="W308" t="inlineStr"/>
+      <c r="X308" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y308" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.22,      mv_5m : -0.55, mv_30m : -8.39, mv_60m: -7.74</t>
+        </is>
+      </c>
+      <c r="Z308" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3538</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="D309" s="2" t="n">
+        <v>45726.8603984375</v>
+      </c>
+      <c r="E309" t="n">
+        <v>265.74</v>
+      </c>
+      <c r="F309" t="n">
+        <v>3188.88</v>
+      </c>
+      <c r="G309" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H309" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
+        <v>12</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O309" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P309" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q309" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R309" t="n">
+        <v>0</v>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>FA1A5AB7BE6EBB2000</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
+      <c r="V309" t="inlineStr"/>
+      <c r="W309" t="inlineStr"/>
+      <c r="X309" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y309" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.05,      mv_5m : 0.16, mv_30m : 0.60, mv_60m: -1.90</t>
+        </is>
+      </c>
+      <c r="Z309" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3539</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D310" s="2" t="n">
+        <v>45726.86050814815</v>
+      </c>
+      <c r="E310" t="n">
+        <v>93.91</v>
+      </c>
+      <c r="F310" t="n">
+        <v>3286.85</v>
+      </c>
+      <c r="G310" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H310" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" t="n">
+        <v>35</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O310" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P310" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q310" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R310" t="n">
+        <v>0</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>FA1A5AB7C7B0BB2000</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
+      <c r="W310" t="inlineStr"/>
+      <c r="X310" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y310" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.48,      mv_5m : -0.39, mv_30m : -1.59, mv_60m: -3.94</t>
+        </is>
+      </c>
+      <c r="Z310" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>3540</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D311" s="2" t="n">
+        <v>45726.86078166667</v>
+      </c>
+      <c r="E311" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="F311" t="n">
+        <v>3264.8</v>
+      </c>
+      <c r="G311" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H311" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" t="n">
+        <v>77</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O311" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P311" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q311" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R311" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>FA1A5AB7DEC2FB2000</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr"/>
+      <c r="U311" t="inlineStr"/>
+      <c r="V311" t="inlineStr"/>
+      <c r="W311" t="inlineStr"/>
+      <c r="X311" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y311" t="inlineStr">
+        <is>
+          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -2.01, mv_60m: -5.12</t>
+        </is>
+      </c>
+      <c r="Z311" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3541</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D312" s="2" t="n">
+        <v>45726.86087146991</v>
+      </c>
+      <c r="E312" t="n">
+        <v>65.33</v>
+      </c>
+      <c r="F312" t="n">
+        <v>3266.5</v>
+      </c>
+      <c r="G312" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H312" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0</v>
+      </c>
+      <c r="L312" t="n">
+        <v>50</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O312" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P312" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q312" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R312" t="n">
+        <v>0</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>FA1A5AB7E65884A000</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr"/>
+      <c r="U312" t="inlineStr"/>
+      <c r="V312" t="inlineStr"/>
+      <c r="W312" t="inlineStr"/>
+      <c r="X312" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y312" t="inlineStr">
+        <is>
+          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -1.62, mv_60m: -3.93</t>
+        </is>
+      </c>
+      <c r="Z312" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3542</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="D313" s="2" t="n">
+        <v>45726.86093787037</v>
+      </c>
+      <c r="E313" t="n">
+        <v>161.37</v>
+      </c>
+      <c r="F313" t="n">
+        <v>3227.4</v>
+      </c>
+      <c r="G313" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H313" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0</v>
+      </c>
+      <c r="L313" t="n">
+        <v>20</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O313" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P313" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q313" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R313" t="n">
+        <v>0</v>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>FA1A5AB7EBF204A000</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
+      <c r="W313" t="inlineStr"/>
+      <c r="X313" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y313" t="inlineStr">
+        <is>
+          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -3.55, mv_60m: -5.72</t>
+        </is>
+      </c>
+      <c r="Z313" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3543</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="D314" s="2" t="n">
+        <v>45726.86132887731</v>
+      </c>
+      <c r="E314" t="n">
+        <v>149.73</v>
+      </c>
+      <c r="F314" t="n">
+        <v>3294.06</v>
+      </c>
+      <c r="G314" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H314" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0</v>
+      </c>
+      <c r="L314" t="n">
+        <v>22</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O314" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P314" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q314" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R314" t="n">
+        <v>0</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>FA1A5AB80CEFFB2000</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr"/>
+      <c r="U314" t="inlineStr"/>
+      <c r="V314" t="inlineStr"/>
+      <c r="W314" t="inlineStr"/>
+      <c r="X314" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y314" t="inlineStr">
+        <is>
+          <t>mv :-0.57, mv_2m:-0.05,      mv_5m : -0.64, mv_30m : -4.35, mv_60m: -7.75</t>
+        </is>
+      </c>
+      <c r="Z314" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3544</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="D315" s="2" t="n">
+        <v>45726.86139648148</v>
+      </c>
+      <c r="E315" t="n">
+        <v>210.87</v>
+      </c>
+      <c r="F315" t="n">
+        <v>3163.05</v>
+      </c>
+      <c r="G315" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H315" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0</v>
+      </c>
+      <c r="L315" t="n">
+        <v>15</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O315" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P315" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q315" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R315" t="n">
+        <v>0</v>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>FA1A5AB812A384A000</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr"/>
+      <c r="U315" t="inlineStr"/>
+      <c r="V315" t="inlineStr"/>
+      <c r="W315" t="inlineStr"/>
+      <c r="X315" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y315" t="inlineStr">
+        <is>
+          <t>mv :-0.57, mv_2m:-0.05,      mv_5m : -0.64, mv_30m : -5.35, mv_60m: -8.28</t>
+        </is>
+      </c>
+      <c r="Z315" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3545</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="D316" s="2" t="n">
+        <v>45726.86149119213</v>
+      </c>
+      <c r="E316" t="n">
+        <v>429.63</v>
+      </c>
+      <c r="F316" t="n">
+        <v>3007.41</v>
+      </c>
+      <c r="G316" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H316" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>7</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O316" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P316" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q316" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R316" t="n">
+        <v>0</v>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>FA1A5AB81AA27B2000</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
+      <c r="W316" t="inlineStr"/>
+      <c r="X316" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y316" t="inlineStr">
+        <is>
+          <t>mv :-0.57, mv_2m:-0.25,      mv_5m : -1.27, mv_30m : -6.17, mv_60m: -9.28</t>
+        </is>
+      </c>
+      <c r="Z316" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3546</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="D317" s="2" t="n">
+        <v>45726.86160655093</v>
+      </c>
+      <c r="E317" t="n">
+        <v>167.4</v>
+      </c>
+      <c r="F317" t="n">
+        <v>3180.6</v>
+      </c>
+      <c r="G317" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H317" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0</v>
+      </c>
+      <c r="L317" t="n">
+        <v>19</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O317" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P317" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q317" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R317" t="n">
+        <v>0</v>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>FA1A5AB8245D84A000</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
+      <c r="W317" t="inlineStr"/>
+      <c r="X317" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y317" t="inlineStr">
+        <is>
+          <t>mv :-0.05, mv_2m:-0.10,      mv_5m : -1.51, mv_30m : -7.85, mv_60m: -8.09</t>
+        </is>
+      </c>
+      <c r="Z317" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3547</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D318" s="2" t="n">
+        <v>45726.86170997685</v>
+      </c>
+      <c r="E318" t="n">
+        <v>401.03</v>
+      </c>
+      <c r="F318" t="n">
+        <v>3208.24</v>
+      </c>
+      <c r="G318" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H318" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>8</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O318" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P318" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R318" t="n">
+        <v>0</v>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>FA1A5AB82D17C4A000</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr"/>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
+      <c r="W318" t="inlineStr"/>
+      <c r="X318" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y318" t="inlineStr">
+        <is>
+          <t>mv :-0.05, mv_2m:0.51,      mv_5m : -0.89, mv_30m : -7.86, mv_60m: -8.12</t>
+        </is>
+      </c>
+      <c r="Z318" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3549</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>ACN</t>
+        </is>
+      </c>
+      <c r="D319" s="2" t="n">
+        <v>45726.86679579861</v>
+      </c>
+      <c r="E319" t="n">
+        <v>319.51</v>
+      </c>
+      <c r="F319" t="n">
+        <v>3195.1</v>
+      </c>
+      <c r="G319" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H319" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>10</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O319" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P319" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R319" t="n">
+        <v>0</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>FA1A5AB9DA3644A000</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
+      <c r="W319" t="inlineStr"/>
+      <c r="X319" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y319" t="inlineStr">
+        <is>
+          <t>mv :-0.05, mv_2m:0.51,      mv_5m : -1.14, mv_30m : -8.20, mv_60m: -8.18</t>
+        </is>
+      </c>
+      <c r="Z319" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3550</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D320" s="2" t="n">
+        <v>45726.86687899305</v>
+      </c>
+      <c r="E320" t="n">
+        <v>244.62</v>
+      </c>
+      <c r="F320" t="n">
+        <v>3180.06</v>
+      </c>
+      <c r="G320" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H320" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>13</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O320" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P320" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R320" t="n">
+        <v>0</v>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>FA1A5AB9E13C44A000</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
+      <c r="W320" t="inlineStr"/>
+      <c r="X320" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y320" t="inlineStr">
+        <is>
+          <t>mv :-0.05, mv_2m:0.52,      mv_5m : -1.13, mv_30m : -8.16, mv_60m: -4.98</t>
+        </is>
+      </c>
+      <c r="Z320" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3551</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D321" s="2" t="n">
+        <v>45726.87449665509</v>
+      </c>
+      <c r="E321" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="F321" t="n">
+        <v>3287.8</v>
+      </c>
+      <c r="G321" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H321" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0</v>
+      </c>
+      <c r="L321" t="n">
+        <v>170</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O321" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P321" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q321" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R321" t="n">
+        <v>0</v>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>FA1A5ABC63F73B2000</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr"/>
+      <c r="U321" t="inlineStr"/>
+      <c r="V321" t="inlineStr"/>
+      <c r="W321" t="inlineStr"/>
+      <c r="X321" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y321" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.94,      mv_5m : -0.11, mv_30m : -6.42, mv_60m: -3.46</t>
+        </is>
+      </c>
+      <c r="Z321" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3552</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="D322" s="2" t="n">
+        <v>45726.87465159722</v>
+      </c>
+      <c r="E322" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="F322" t="n">
+        <v>3276</v>
+      </c>
+      <c r="G322" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H322" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0</v>
+      </c>
+      <c r="L322" t="n">
+        <v>56</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O322" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P322" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q322" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R322" t="n">
+        <v>0</v>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>FA1A5ABC710ABB2000</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr"/>
+      <c r="U322" t="inlineStr"/>
+      <c r="V322" t="inlineStr"/>
+      <c r="W322" t="inlineStr"/>
+      <c r="X322" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y322" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -7.76, mv_60m: -1.38</t>
+        </is>
+      </c>
+      <c r="Z322" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>3553</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="D323" s="2" t="n">
+        <v>45726.87471871528</v>
+      </c>
+      <c r="E323" t="n">
+        <v>50.38</v>
+      </c>
+      <c r="F323" t="n">
+        <v>3274.7</v>
+      </c>
+      <c r="G323" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H323" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0</v>
+      </c>
+      <c r="L323" t="n">
+        <v>65</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O323" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P323" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q323" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R323" t="n">
+        <v>0</v>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>FA1A5ABC76B604A000</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
+      <c r="W323" t="inlineStr"/>
+      <c r="X323" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y323" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -7.50, mv_60m: -1.37</t>
+        </is>
+      </c>
+      <c r="Z323" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3554</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="D324" s="2" t="n">
+        <v>45726.87478361111</v>
+      </c>
+      <c r="E324" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="F324" t="n">
+        <v>3284.96</v>
+      </c>
+      <c r="G324" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H324" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0</v>
+      </c>
+      <c r="L324" t="n">
+        <v>112</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O324" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P324" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q324" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R324" t="n">
+        <v>0</v>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>FA1A5ABC7C2D04A000</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr"/>
+      <c r="U324" t="inlineStr"/>
+      <c r="V324" t="inlineStr"/>
+      <c r="W324" t="inlineStr"/>
+      <c r="X324" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y324" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -8.07, mv_60m: -2.10</t>
+        </is>
+      </c>
+      <c r="Z324" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>3555</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D325" s="2" t="n">
+        <v>45726.87485008102</v>
+      </c>
+      <c r="E325" t="n">
+        <v>119.53</v>
+      </c>
+      <c r="F325" t="n">
+        <v>3227.31</v>
+      </c>
+      <c r="G325" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H325" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0</v>
+      </c>
+      <c r="L325" t="n">
+        <v>27</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O325" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P325" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q325" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R325" t="n">
+        <v>0</v>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>FA1A5ABC81C984A000</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr"/>
+      <c r="U325" t="inlineStr"/>
+      <c r="V325" t="inlineStr"/>
+      <c r="W325" t="inlineStr"/>
+      <c r="X325" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y325" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.97,      mv_5m : -0.09, mv_30m : -9.65, mv_60m: -2.68</t>
+        </is>
+      </c>
+      <c r="Z325" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>3556</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="D326" s="2" t="n">
+        <v>45726.87516543981</v>
+      </c>
+      <c r="E326" t="n">
+        <v>102.64</v>
+      </c>
+      <c r="F326" t="n">
+        <v>3284.48</v>
+      </c>
+      <c r="G326" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H326" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0</v>
+      </c>
+      <c r="L326" t="n">
+        <v>32</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O326" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P326" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q326" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R326" t="n">
+        <v>0</v>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>FA1A5ABC9C6584A000</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr"/>
+      <c r="V326" t="inlineStr"/>
+      <c r="W326" t="inlineStr"/>
+      <c r="X326" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y326" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.97,      mv_5m : -0.09, mv_30m : -9.46, mv_60m: -2.86</t>
+        </is>
+      </c>
+      <c r="Z326" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3557</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="D327" s="2" t="n">
+        <v>45726.87525042824</v>
+      </c>
+      <c r="E327" t="n">
+        <v>111.64</v>
+      </c>
+      <c r="F327" t="n">
+        <v>3237.56</v>
+      </c>
+      <c r="G327" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H327" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0</v>
+      </c>
+      <c r="L327" t="n">
+        <v>29</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O327" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P327" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q327" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R327" t="n">
+        <v>0</v>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>FA1A5ABCA39004A000</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr"/>
+      <c r="V327" t="inlineStr"/>
+      <c r="W327" t="inlineStr"/>
+      <c r="X327" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y327" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:2.01,      mv_5m : -0.00, mv_30m : -9.79, mv_60m: -7.77</t>
+        </is>
+      </c>
+      <c r="Z327" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3558</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D328" s="2" t="n">
+        <v>45726.87535752315</v>
+      </c>
+      <c r="E328" t="n">
+        <v>224.66</v>
+      </c>
+      <c r="F328" t="n">
+        <v>3145.24</v>
+      </c>
+      <c r="G328" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H328" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0</v>
+      </c>
+      <c r="L328" t="n">
+        <v>14</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O328" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P328" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q328" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R328" t="n">
+        <v>0</v>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>FA1A5ABCAC9A04A000</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr"/>
+      <c r="U328" t="inlineStr"/>
+      <c r="V328" t="inlineStr"/>
+      <c r="W328" t="inlineStr"/>
+      <c r="X328" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y328" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.37, mv_30m : -10.63, mv_60m: -8.25</t>
+        </is>
+      </c>
+      <c r="Z328" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3559</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="D329" s="2" t="n">
+        <v>45726.87543320602</v>
+      </c>
+      <c r="E329" t="n">
+        <v>787.0599999999999</v>
+      </c>
+      <c r="F329" t="n">
+        <v>3148.24</v>
+      </c>
+      <c r="G329" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H329" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0</v>
+      </c>
+      <c r="L329" t="n">
+        <v>4</v>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N329" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O329" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P329" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q329" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R329" t="n">
+        <v>0</v>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>FA1A5ABCB2FB44A000</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr"/>
+      <c r="U329" t="inlineStr"/>
+      <c r="V329" t="inlineStr"/>
+      <c r="W329" t="inlineStr"/>
+      <c r="X329" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y329" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.35, mv_30m : -10.58, mv_60m: -8.18</t>
+        </is>
+      </c>
+      <c r="Z329" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>3560</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D330" s="2" t="n">
+        <v>45726.8755080787</v>
+      </c>
+      <c r="E330" t="n">
+        <v>837.03</v>
+      </c>
+      <c r="F330" t="n">
+        <v>2511.09</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H330" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0</v>
+      </c>
+      <c r="L330" t="n">
+        <v>3</v>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O330" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P330" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q330" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R330" t="n">
+        <v>0</v>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>FA1A5ABCB94E7B2000</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
+      <c r="W330" t="inlineStr"/>
+      <c r="X330" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y330" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.36, mv_30m : -10.15, mv_60m: -7.21</t>
+        </is>
+      </c>
+      <c r="Z330" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3561</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D331" s="2" t="n">
+        <v>45726.87558288194</v>
+      </c>
+      <c r="E331" t="n">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="F331" t="n">
+        <v>3289.3</v>
+      </c>
+      <c r="G331" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H331" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0</v>
+      </c>
+      <c r="L331" t="n">
+        <v>37</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N331" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O331" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P331" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q331" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R331" t="n">
+        <v>0</v>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>FA1A5ABCBFA084A000</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr"/>
+      <c r="U331" t="inlineStr"/>
+      <c r="V331" t="inlineStr"/>
+      <c r="W331" t="inlineStr"/>
+      <c r="X331" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y331" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.41, mv_30m : -9.64, mv_60m: -7.33</t>
+        </is>
+      </c>
+      <c r="Z331" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3562</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="D332" s="2" t="n">
+        <v>45726.87565265047</v>
+      </c>
+      <c r="E332" t="n">
+        <v>355.46</v>
+      </c>
+      <c r="F332" t="n">
+        <v>3199.14</v>
+      </c>
+      <c r="G332" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H332" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>9</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N332" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O332" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P332" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R332" t="n">
+        <v>0</v>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>FA1A5ABCC580FB2000</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr"/>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
+      <c r="W332" t="inlineStr"/>
+      <c r="X332" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y332" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:2.09,      mv_5m : -0.20, mv_30m : -10.91, mv_60m: -8.63</t>
+        </is>
+      </c>
+      <c r="Z332" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>3563</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D333" s="2" t="n">
+        <v>45726.8757215625</v>
+      </c>
+      <c r="E333" t="n">
+        <v>525.33</v>
+      </c>
+      <c r="F333" t="n">
+        <v>3151.98</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H333" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>6</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N333" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O333" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P333" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R333" t="n">
+        <v>0</v>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>FA1A5ABCCB53BB2000</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr"/>
+      <c r="U333" t="inlineStr"/>
+      <c r="V333" t="inlineStr"/>
+      <c r="W333" t="inlineStr"/>
+      <c r="X333" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:2.32,      mv_5m : 0.01, mv_30m : -10.87, mv_60m: -8.75</t>
+        </is>
+      </c>
+      <c r="Z333" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3564</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D334" s="2" t="n">
+        <v>45726.8758112963</v>
+      </c>
+      <c r="E334" t="n">
+        <v>166.31</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3159.89</v>
+      </c>
+      <c r="G334" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H334" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>19</v>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N334" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O334" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P334" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R334" t="n">
+        <v>0</v>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>FA1A5ABCD2E43B2000</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr"/>
+      <c r="U334" t="inlineStr"/>
+      <c r="V334" t="inlineStr"/>
+      <c r="W334" t="inlineStr"/>
+      <c r="X334" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y334" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.35,      mv_5m : -0.34, mv_30m : -11.23, mv_60m: -7.91</t>
+        </is>
+      </c>
+      <c r="Z334" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>3565</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="D335" s="2" t="n">
+        <v>45726.87592704861</v>
+      </c>
+      <c r="E335" t="n">
+        <v>874.35</v>
+      </c>
+      <c r="F335" t="n">
+        <v>2623.05</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H335" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0</v>
+      </c>
+      <c r="L335" t="n">
+        <v>3</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O335" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P335" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q335" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R335" t="n">
+        <v>0</v>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>FA1A5ABCDCAD84A000</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr"/>
+      <c r="U335" t="inlineStr"/>
+      <c r="V335" t="inlineStr"/>
+      <c r="W335" t="inlineStr"/>
+      <c r="X335" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y335" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.49,      mv_5m : -1.30, mv_30m : -10.94, mv_60m: -8.03</t>
+        </is>
+      </c>
+      <c r="Z335" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>3566</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D336" s="2" t="n">
+        <v>45726.87599631945</v>
+      </c>
+      <c r="E336" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="F336" t="n">
+        <v>3067.35</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H336" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L336" t="n">
+        <v>13</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O336" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P336" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q336" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R336" t="n">
+        <v>0</v>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>FA1A5ABCE28304A000</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr"/>
+      <c r="U336" t="inlineStr"/>
+      <c r="V336" t="inlineStr"/>
+      <c r="W336" t="inlineStr"/>
+      <c r="X336" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y336" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.49,      mv_5m : -1.22, mv_30m : -10.52, mv_60m: -7.15</t>
+        </is>
+      </c>
+      <c r="Z336" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3567</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D337" s="2" t="n">
+        <v>45726.87606424768</v>
+      </c>
+      <c r="E337" t="n">
+        <v>140.92</v>
+      </c>
+      <c r="F337" t="n">
+        <v>3241.16</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H337" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L337" t="n">
+        <v>23</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O337" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P337" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q337" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R337" t="n">
+        <v>0</v>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>FA1A5ABCE83BFB2000</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr"/>
+      <c r="U337" t="inlineStr"/>
+      <c r="V337" t="inlineStr"/>
+      <c r="W337" t="inlineStr"/>
+      <c r="X337" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y337" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.51,      mv_5m : -0.99, mv_30m : -10.87, mv_60m: -7.37</t>
+        </is>
+      </c>
+      <c r="Z337" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3568</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="D338" s="2" t="n">
+        <v>45726.87615194445</v>
+      </c>
+      <c r="E338" t="n">
+        <v>91.93000000000001</v>
+      </c>
+      <c r="F338" t="n">
+        <v>3217.55</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H338" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L338" t="n">
+        <v>35</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O338" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P338" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q338" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R338" t="n">
+        <v>0</v>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>FA1A5ABCEFA544A000</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr"/>
+      <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
+      <c r="W338" t="inlineStr"/>
+      <c r="X338" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y338" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.95, mv_30m : -11.10, mv_60m: -4.81</t>
+        </is>
+      </c>
+      <c r="Z338" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>3569</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="D339" s="2" t="n">
+        <v>45726.87643540509</v>
+      </c>
+      <c r="E339" t="n">
+        <v>178.86</v>
+      </c>
+      <c r="F339" t="n">
+        <v>3219.48</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H339" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>18</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N339" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O339" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P339" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R339" t="n">
+        <v>0</v>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>FA1A5ABD078E3B2000</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr"/>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
+      <c r="W339" t="inlineStr"/>
+      <c r="X339" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y339" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -10.99, mv_60m: -1.81</t>
+        </is>
+      </c>
+      <c r="Z339" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>3570</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="D340" s="2" t="n">
+        <v>45726.87651829861</v>
+      </c>
+      <c r="E340" t="n">
+        <v>138.18</v>
+      </c>
+      <c r="F340" t="n">
+        <v>3178.14</v>
+      </c>
+      <c r="G340" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H340" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L340" t="n">
+        <v>23</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O340" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P340" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q340" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R340" t="n">
+        <v>0</v>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>FA1A5ABD0E8984A000</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr"/>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
+      <c r="X340" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y340" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -10.72, mv_60m: -1.73</t>
+        </is>
+      </c>
+      <c r="Z340" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3571</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="D341" s="2" t="n">
+        <v>45726.87662087963</v>
+      </c>
+      <c r="E341" t="n">
+        <v>586.53</v>
+      </c>
+      <c r="F341" t="n">
+        <v>2932.65</v>
+      </c>
+      <c r="G341" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H341" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L341" t="n">
+        <v>5</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O341" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P341" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q341" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R341" t="n">
+        <v>0</v>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>FA1A5ABD173244A000</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr"/>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
+      <c r="W341" t="inlineStr"/>
+      <c r="X341" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y341" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -13.78, mv_60m: -6.09</t>
+        </is>
+      </c>
+      <c r="Z341" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3572</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D342" s="2" t="n">
+        <v>45726.87671978009</v>
+      </c>
+      <c r="E342" t="n">
+        <v>327.58</v>
+      </c>
+      <c r="F342" t="n">
+        <v>3275.8</v>
+      </c>
+      <c r="G342" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H342" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L342" t="n">
+        <v>10</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O342" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P342" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q342" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R342" t="n">
+        <v>0</v>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>FA1A5ABD1F8DBB2000</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr"/>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
+      <c r="W342" t="inlineStr"/>
+      <c r="X342" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y342" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.88, mv_30m : -12.46, mv_60m: -5.24</t>
+        </is>
+      </c>
+      <c r="Z342" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>3573</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>45726.87679993056</v>
+      </c>
+      <c r="E343" t="n">
+        <v>230.51</v>
+      </c>
+      <c r="F343" t="n">
+        <v>3227.14</v>
+      </c>
+      <c r="G343" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H343" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L343" t="n">
+        <v>14</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O343" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P343" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q343" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R343" t="n">
+        <v>0</v>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>FA1A5ABD264C3B2000</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr"/>
+      <c r="U343" t="inlineStr"/>
+      <c r="V343" t="inlineStr"/>
+      <c r="W343" t="inlineStr"/>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.45, mv_30m : -12.41, mv_60m: -5.13</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3574</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>45726.8769471412</v>
+      </c>
+      <c r="E344" t="n">
+        <v>322.36</v>
+      </c>
+      <c r="F344" t="n">
+        <v>3223.6</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H344" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L344" t="n">
+        <v>10</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O344" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P344" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R344" t="n">
+        <v>0</v>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>FA1A5ABD32CCC4A000</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr"/>
+      <c r="U344" t="inlineStr"/>
+      <c r="V344" t="inlineStr"/>
+      <c r="W344" t="inlineStr"/>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.58,      mv_5m : -0.45, mv_30m : -12.56, mv_60m: -4.04</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>3575</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>45726.87702922454</v>
+      </c>
+      <c r="E345" t="n">
+        <v>199.35</v>
+      </c>
+      <c r="F345" t="n">
+        <v>3189.6</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H345" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>0</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L345" t="n">
+        <v>16</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O345" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P345" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R345" t="n">
+        <v>0</v>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>FA1A5ABD39A87B2000</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr"/>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr"/>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.58,      mv_5m : -0.45, mv_30m : -12.96, mv_60m: -4.82</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>3576</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>45726.8771290625</v>
+      </c>
+      <c r="E346" t="n">
+        <v>509.78</v>
+      </c>
+      <c r="F346" t="n">
+        <v>3058.68</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H346" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>0</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L346" t="n">
+        <v>6</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N346" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O346" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P346" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R346" t="n">
+        <v>0</v>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>FA1A5ABD4219FB2000</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr"/>
+      <c r="U346" t="inlineStr"/>
+      <c r="V346" t="inlineStr"/>
+      <c r="W346" t="inlineStr"/>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.65,      mv_5m : -0.38, mv_30m : -13.22, mv_60m: -4.52</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3577</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>45726.87719899305</v>
+      </c>
+      <c r="E347" t="n">
+        <v>563.97</v>
+      </c>
+      <c r="F347" t="n">
+        <v>2819.85</v>
+      </c>
+      <c r="G347" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H347" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>0</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L347" t="n">
+        <v>5</v>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O347" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P347" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q347" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R347" t="n">
+        <v>0</v>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>FA1A5ABD48067B2000</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr"/>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr"/>
+      <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.57,      mv_5m : -0.50, mv_30m : -10.22, mv_60m: -1.52</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3578</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>45726.87727319444</v>
+      </c>
+      <c r="E348" t="n">
+        <v>441.87</v>
+      </c>
+      <c r="F348" t="n">
+        <v>3093.09</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H348" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>0</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L348" t="n">
+        <v>7</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N348" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O348" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P348" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R348" t="n">
+        <v>0</v>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>FA1A5ABD4E3F7B2000</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr"/>
+      <c r="U348" t="inlineStr"/>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr"/>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.57,      mv_5m : -0.55, mv_30m : -10.12, mv_60m: -3.60</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3579</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>45726.87758883102</v>
+      </c>
+      <c r="E349" t="n">
+        <v>254.94</v>
+      </c>
+      <c r="F349" t="n">
+        <v>3059.28</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H349" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>0</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L349" t="n">
+        <v>12</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N349" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O349" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P349" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R349" t="n">
+        <v>0</v>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>FA1A5ABD68E5BB2000</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr"/>
+      <c r="U349" t="inlineStr"/>
+      <c r="V349" t="inlineStr"/>
+      <c r="W349" t="inlineStr"/>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.57,      mv_5m : 0.25, mv_30m : -12.51, mv_60m: -6.54</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>3580</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>45726.87766740741</v>
+      </c>
+      <c r="E350" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="F350" t="n">
+        <v>3299.82</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H350" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>86</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N350" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O350" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P350" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R350" t="n">
+        <v>0</v>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>FA1A5ABD6F95FB2000</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr"/>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr"/>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.57,      mv_5m : 0.01, mv_30m : -12.63, mv_60m: -7.11</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>3581</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>45726.87775346065</v>
+      </c>
+      <c r="E351" t="n">
+        <v>43.91</v>
+      </c>
+      <c r="F351" t="n">
+        <v>3293.25</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H351" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>0</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L351" t="n">
+        <v>75</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N351" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O351" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P351" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R351" t="n">
+        <v>0</v>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>FA1A5ABD76DCFB2000</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr"/>
+      <c r="U351" t="inlineStr"/>
+      <c r="V351" t="inlineStr"/>
+      <c r="W351" t="inlineStr"/>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.72,      mv_5m : 0.20, mv_30m : -11.93, mv_60m: -5.56</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3582</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>45726.87786969908</v>
+      </c>
+      <c r="E352" t="n">
+        <v>128.95</v>
+      </c>
+      <c r="F352" t="n">
+        <v>3223.75</v>
+      </c>
+      <c r="G352" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H352" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>0</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L352" t="n">
+        <v>25</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O352" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P352" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R352" t="n">
+        <v>0</v>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>FA1A5ABD80AFFB2000</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr"/>
+      <c r="U352" t="inlineStr"/>
+      <c r="V352" t="inlineStr"/>
+      <c r="W352" t="inlineStr"/>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.32, mv_30m : -12.44, mv_60m: -6.68</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3583</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>CARR</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>45726.87794344907</v>
+      </c>
+      <c r="E353" t="n">
+        <v>62.57</v>
+      </c>
+      <c r="F353" t="n">
+        <v>3253.64</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H353" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>0</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L353" t="n">
+        <v>52</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N353" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O353" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P353" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R353" t="n">
+        <v>0</v>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>FA1A5ABD86D584A000</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr"/>
+      <c r="U353" t="inlineStr"/>
+      <c r="V353" t="inlineStr"/>
+      <c r="W353" t="inlineStr"/>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.32, mv_30m : -12.45, mv_60m: -3.68</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>3584</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>45726.87802501157</v>
+      </c>
+      <c r="E354" t="n">
+        <v>181.95</v>
+      </c>
+      <c r="F354" t="n">
+        <v>3275.1</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H354" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L354" t="n">
+        <v>18</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N354" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O354" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P354" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R354" t="n">
+        <v>0</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>FA1A5ABD8DC4C4A000</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr"/>
+      <c r="U354" t="inlineStr"/>
+      <c r="V354" t="inlineStr"/>
+      <c r="W354" t="inlineStr"/>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.17, mv_30m : -12.24, mv_60m: -3.07</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3585</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>45726.87814689815</v>
+      </c>
+      <c r="E355" t="n">
+        <v>93.97</v>
+      </c>
+      <c r="F355" t="n">
+        <v>3288.95</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H355" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>0</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L355" t="n">
+        <v>35</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N355" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O355" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P355" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R355" t="n">
+        <v>0</v>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>FA1A5ABD980744A000</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr"/>
+      <c r="U355" t="inlineStr"/>
+      <c r="V355" t="inlineStr"/>
+      <c r="W355" t="inlineStr"/>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.21,      mv_5m : 0.01, mv_30m : -12.25, mv_60m: -3.28</t>
+        </is>
+      </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>3586</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>45726.87823263889</v>
+      </c>
+      <c r="E356" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="F356" t="n">
+        <v>3297.6</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H356" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>0</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>360</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N356" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O356" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P356" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>FA1A5ABD9F31FB2000</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr"/>
+      <c r="U356" t="inlineStr"/>
+      <c r="V356" t="inlineStr"/>
+      <c r="W356" t="inlineStr"/>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y356" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.21,      mv_5m : -0.05, mv_30m : -12.19, mv_60m: -3.20</t>
+        </is>
+      </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3587</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>45726.8783094213</v>
+      </c>
+      <c r="E357" t="n">
+        <v>72.91</v>
+      </c>
+      <c r="F357" t="n">
+        <v>3280.95</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>45</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O357" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P357" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>FA1A5ABDA5BFBB2000</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr"/>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr"/>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.22,      mv_5m : -0.03, mv_30m : -12.10, mv_60m: -2.54</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>3588</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>45726.87838375</v>
+      </c>
+      <c r="E358" t="n">
+        <v>659.5</v>
+      </c>
+      <c r="F358" t="n">
+        <v>3297.5</v>
+      </c>
+      <c r="G358" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H358" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>0</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L358" t="n">
+        <v>5</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N358" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O358" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P358" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R358" t="n">
+        <v>0</v>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>FA1A5ABDABF804A000</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr"/>
+      <c r="U358" t="inlineStr"/>
+      <c r="V358" t="inlineStr"/>
+      <c r="W358" t="inlineStr"/>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:2.22,      mv_5m : 0.14, mv_30m : -11.73, mv_60m: -1.65</t>
+        </is>
+      </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/real_trade_db - Copy (4).xlsx
+++ b/db/real_trade_db - Copy (4).xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA358"/>
+  <dimension ref="A1:AA371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27940,7 +27940,7 @@
         <v>1.006</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R291" t="n">
         <v>0</v>
@@ -28508,75 +28508,81 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>3523</v>
+        <v>3634</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45726.85590167824</v>
+        <v>45727.19799712963</v>
       </c>
       <c r="E298" t="n">
-        <v>347.6</v>
+        <v>145.41</v>
       </c>
       <c r="F298" t="n">
-        <v>3128.4</v>
+        <v>2617.38</v>
       </c>
       <c r="G298" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H298" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>45727.31416289352</v>
+      </c>
+      <c r="I298" t="n">
+        <v>146.04</v>
+      </c>
       <c r="J298" t="n">
-        <v>0</v>
+        <v>2628.72</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L298" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O298" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P298" t="n">
         <v>1.006</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>9.179999999999691</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>FA1A5AB642E004A000</t>
+          <t>FA1A5B270357BB2000</t>
         </is>
       </c>
       <c r="T298" t="inlineStr"/>
       <c r="U298" t="inlineStr"/>
       <c r="V298" t="inlineStr"/>
-      <c r="W298" t="inlineStr"/>
+      <c r="W298" t="inlineStr">
+        <is>
+          <t>FA1A5B3E5149BB2000</t>
+        </is>
+      </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.00, mv_30m : -0.05, mv_60m: -0.50</t>
+          <t>mv :-31.43, mv_2m:1.06,      mv_5m : 1.64, mv_30m : -7.30, mv_60m: -17.94</t>
         </is>
       </c>
       <c r="Z298" t="inlineStr">
@@ -28591,41 +28597,43 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>3524</v>
+        <v>3932</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45726.85595936343</v>
+        <v>45727.90259138889</v>
       </c>
       <c r="E299" t="n">
-        <v>65.94</v>
+        <v>34.295</v>
       </c>
       <c r="F299" t="n">
-        <v>3297</v>
+        <v>2743.6</v>
       </c>
       <c r="G299" t="n">
-        <v>1.111</v>
+        <v>1.23</v>
       </c>
       <c r="H299" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>45728.06778252315</v>
+      </c>
+      <c r="I299" t="n">
+        <v>34.44</v>
+      </c>
       <c r="J299" t="n">
-        <v>0</v>
+        <v>2755.2</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L299" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N299" t="n">
@@ -28641,25 +28649,29 @@
         <v>0.45</v>
       </c>
       <c r="R299" t="n">
-        <v>0</v>
+        <v>9.049999999999908</v>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>FA1A5AB647BDC4A000</t>
-        </is>
-      </c>
-      <c r="T299" t="inlineStr"/>
+          <t>FA1A5C0F3D8104A000</t>
+        </is>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>FA1A5C3806D67B2000</t>
+        </is>
+      </c>
       <c r="U299" t="inlineStr"/>
       <c r="V299" t="inlineStr"/>
       <c r="W299" t="inlineStr"/>
       <c r="X299" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>before_market_open_2</t>
         </is>
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.00, mv_30m : 0.27, mv_60m: -2.53</t>
+          <t>mv :-0.09, mv_2m:0.66,      mv_5m : 0.96, mv_30m : 0.08, mv_60m: 9.82</t>
         </is>
       </c>
       <c r="Z299" t="inlineStr">
@@ -28667,48 +28679,54 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA299" t="inlineStr"/>
+      <c r="AA299" t="inlineStr">
+        <is>
+          <t>FA1A5C38076E3B2000</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>3525</v>
+        <v>3937</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45726.85601847222</v>
+        <v>45728.02131976852</v>
       </c>
       <c r="E300" t="n">
-        <v>99.01000000000001</v>
+        <v>42.19</v>
       </c>
       <c r="F300" t="n">
-        <v>3267.33</v>
+        <v>2742.35</v>
       </c>
       <c r="G300" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H300" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>45728.14167711805</v>
+      </c>
+      <c r="I300" t="n">
+        <v>42.36</v>
+      </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>2753.4</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L300" t="n">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N300" t="n">
@@ -28721,28 +28739,32 @@
         <v>1.006</v>
       </c>
       <c r="Q300" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>8.580000000000183</v>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>FA1A5AB64CB9FB2000</t>
-        </is>
-      </c>
-      <c r="T300" t="inlineStr"/>
+          <t>FA1A5C365F2A7B2000</t>
+        </is>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>FA1A5C45A645C4A000</t>
+        </is>
+      </c>
       <c r="U300" t="inlineStr"/>
       <c r="V300" t="inlineStr"/>
       <c r="W300" t="inlineStr"/>
       <c r="X300" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y300" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.00,      mv_5m : -0.01, mv_30m : 0.72, mv_60m: -1.38</t>
+          <t>mv :0.23, mv_2m:0.26,      mv_5m : -3.42, mv_30m : -6.04, mv_60m: -5.51</t>
         </is>
       </c>
       <c r="Z300" t="inlineStr">
@@ -28750,82 +28772,92 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA300" t="inlineStr"/>
+      <c r="AA300" t="inlineStr">
+        <is>
+          <t>FA1A5C4E019D3B2000</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>3526</v>
+        <v>3959</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45726.85618224537</v>
+        <v>45728.14957509259</v>
       </c>
       <c r="E301" t="n">
-        <v>167.64</v>
+        <v>122.69</v>
       </c>
       <c r="F301" t="n">
-        <v>3185.16</v>
+        <v>2699.18</v>
       </c>
       <c r="G301" t="n">
-        <v>1.111</v>
+        <v>1.06</v>
       </c>
       <c r="H301" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>45728.22021313658</v>
+      </c>
+      <c r="I301" t="n">
+        <v>122.6909</v>
+      </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>2699.1998</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L301" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O301" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P301" t="n">
         <v>1.006</v>
       </c>
       <c r="Q301" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>-2.190199999999968</v>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>FA1A5AB65AAFFB2000</t>
+          <t>FA1A5C60A4AFFB2000</t>
         </is>
       </c>
       <c r="T301" t="inlineStr"/>
       <c r="U301" t="inlineStr"/>
       <c r="V301" t="inlineStr"/>
-      <c r="W301" t="inlineStr"/>
+      <c r="W301" t="inlineStr">
+        <is>
+          <t>FA1A5C6A6CCC44A000</t>
+        </is>
+      </c>
       <c r="X301" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y301" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.04, mv_30m : -0.95, mv_60m: -3.75</t>
+          <t>mv :-9.68, mv_2m:2.85,      mv_5m : 3.66, mv_30m : -5.74, mv_60m: -15.01</t>
         </is>
       </c>
       <c r="Z301" t="inlineStr">
@@ -28840,75 +28872,81 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>3527</v>
+        <v>3960</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45726.85624177083</v>
+        <v>45728.18920061343</v>
       </c>
       <c r="E302" t="n">
-        <v>146.02</v>
+        <v>149.57</v>
       </c>
       <c r="F302" t="n">
-        <v>3212.44</v>
+        <v>2692.26</v>
       </c>
       <c r="G302" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H302" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>45728.23969491898</v>
+      </c>
+      <c r="I302" t="n">
+        <v>150.27</v>
+      </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>2704.86</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L302" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O302" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P302" t="n">
         <v>1.006</v>
       </c>
       <c r="Q302" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>10.42999999999991</v>
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t>FA1A5AB65FB4FB2000</t>
+          <t>FA1A5C6DB41E3B2000</t>
         </is>
       </c>
       <c r="T302" t="inlineStr"/>
       <c r="U302" t="inlineStr"/>
       <c r="V302" t="inlineStr"/>
-      <c r="W302" t="inlineStr"/>
+      <c r="W302" t="inlineStr">
+        <is>
+          <t>FA1A5C706B9CFB2000</t>
+        </is>
+      </c>
       <c r="X302" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.10, mv_30m : -0.66, mv_60m: -3.27</t>
+          <t>mv :-9.79, mv_2m:0.18,      mv_5m : 0.66, mv_30m : -2.07, mv_60m: -7.54</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr">
@@ -28923,75 +28961,81 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>3528</v>
+        <v>3961</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45726.85630340278</v>
+        <v>45728.20312076389</v>
       </c>
       <c r="E303" t="n">
-        <v>160.69</v>
+        <v>264.87</v>
       </c>
       <c r="F303" t="n">
-        <v>3213.8</v>
+        <v>2648.7</v>
       </c>
       <c r="G303" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H303" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>45728.25123675926</v>
+      </c>
+      <c r="I303" t="n">
+        <v>264.82</v>
+      </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>2648.2</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L303" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O303" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P303" t="n">
         <v>1.006</v>
       </c>
       <c r="Q303" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R303" t="n">
-        <v>0</v>
+        <v>-2.62</v>
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t>FA1A5AB664E8BB2000</t>
+          <t>FA1A5C724AA83B2000</t>
         </is>
       </c>
       <c r="T303" t="inlineStr"/>
       <c r="U303" t="inlineStr"/>
       <c r="V303" t="inlineStr"/>
-      <c r="W303" t="inlineStr"/>
+      <c r="W303" t="inlineStr">
+        <is>
+          <t>FA1A5C74F81404A000</t>
+        </is>
+      </c>
       <c r="X303" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y303" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.53,      mv_5m : 0.11, mv_30m : -0.65, mv_60m: -3.73</t>
+          <t>mv :-10.31, mv_2m:-0.66,      mv_5m : 6.89, mv_30m : 16.30, mv_60m: -9.15</t>
         </is>
       </c>
       <c r="Z303" t="inlineStr">
@@ -29006,24 +29050,24 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>3529</v>
+        <v>4077</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45726.85671289352</v>
+        <v>45728.78326734954</v>
       </c>
       <c r="E304" t="n">
-        <v>145.84</v>
+        <v>134.11</v>
       </c>
       <c r="F304" t="n">
-        <v>3208.48</v>
+        <v>2682.2</v>
       </c>
       <c r="G304" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H304" s="2" t="n">
         <v>25934</v>
@@ -29036,34 +29080,38 @@
         <v>0</v>
       </c>
       <c r="L304" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N304" t="n">
         <v>1.05</v>
       </c>
       <c r="O304" t="n">
-        <v>1.005</v>
+        <v>1.02</v>
       </c>
       <c r="P304" t="n">
         <v>1.006</v>
       </c>
       <c r="Q304" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R304" t="n">
         <v>0</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>FA1A5AB68775C4A000</t>
-        </is>
-      </c>
-      <c r="T304" t="inlineStr"/>
+          <t>FA1A5D31807C7B2000</t>
+        </is>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>FA1A5D82A68884A000</t>
+        </is>
+      </c>
       <c r="U304" t="inlineStr"/>
       <c r="V304" t="inlineStr"/>
       <c r="W304" t="inlineStr"/>
@@ -29074,7 +29122,7 @@
       </c>
       <c r="Y304" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : 0.27, mv_30m : -4.10, mv_60m: -6.89</t>
+          <t>mv :-24.45, mv_2m:-1.12,      mv_5m : 0.78, mv_30m : -15.34, mv_60m: -25.24</t>
         </is>
       </c>
       <c r="Z304" t="inlineStr">
@@ -29082,48 +29130,54 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA304" t="inlineStr"/>
+      <c r="AA304" t="inlineStr">
+        <is>
+          <t>FA1A5D862FB87B2000</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>3530</v>
+        <v>4086</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45726.85677267361</v>
+        <v>45728.78494418981</v>
       </c>
       <c r="E305" t="n">
-        <v>111.65</v>
+        <v>472.43</v>
       </c>
       <c r="F305" t="n">
-        <v>3237.85</v>
+        <v>2362.15</v>
       </c>
       <c r="G305" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H305" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>45730.10721021991</v>
+      </c>
+      <c r="I305" t="n">
+        <v>474.54</v>
+      </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>2372.7</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L305" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N305" t="n">
@@ -29139,25 +29193,29 @@
         <v>0.45</v>
       </c>
       <c r="R305" t="n">
-        <v>0</v>
+        <v>8.450000000000182</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>FA1A5AB68C8004A000</t>
-        </is>
-      </c>
-      <c r="T305" t="inlineStr"/>
+          <t>FA1A5D320DF6BB2000</t>
+        </is>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>FA1A5D82428304A000</t>
+        </is>
+      </c>
       <c r="U305" t="inlineStr"/>
       <c r="V305" t="inlineStr"/>
       <c r="W305" t="inlineStr"/>
       <c r="X305" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>before_market_open_2</t>
         </is>
       </c>
       <c r="Y305" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : 0.03, mv_30m : -4.30, mv_60m: -7.06</t>
+          <t>mv :-24.45, mv_2m:0.00,      mv_5m : 0.41, mv_30m : 2.68, mv_60m: 2.39</t>
         </is>
       </c>
       <c r="Z305" t="inlineStr">
@@ -29165,48 +29223,52 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA305" t="inlineStr"/>
+      <c r="AA305" t="inlineStr">
+        <is>
+          <t>FA1A5ECC74FA04A000</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>3533</v>
+        <v>4089</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45726.85698689815</v>
+        <v>45730.08516857639</v>
       </c>
       <c r="E306" t="n">
-        <v>267.41</v>
+        <v>150.9177</v>
       </c>
       <c r="F306" t="n">
-        <v>3208.92</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3169.2717</v>
+      </c>
+      <c r="G306" t="inlineStr"/>
       <c r="H306" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>45730.14014233796</v>
+      </c>
+      <c r="I306" t="n">
+        <v>150.88</v>
+      </c>
       <c r="J306" t="n">
-        <v>0</v>
+        <v>3168.48</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L306" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N306" t="n">
@@ -29221,15 +29283,17 @@
       <c r="Q306" t="n">
         <v>0.45</v>
       </c>
-      <c r="R306" t="n">
-        <v>0</v>
-      </c>
+      <c r="R306" t="inlineStr"/>
       <c r="S306" t="inlineStr">
         <is>
-          <t>FA1A5AB69E9344A000</t>
-        </is>
-      </c>
-      <c r="T306" t="inlineStr"/>
+          <t>FA1A5EDE989FFB2000</t>
+        </is>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>FA1A5EE35C7144A000</t>
+        </is>
+      </c>
       <c r="U306" t="inlineStr"/>
       <c r="V306" t="inlineStr"/>
       <c r="W306" t="inlineStr"/>
@@ -29240,7 +29304,7 @@
       </c>
       <c r="Y306" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : -0.46, mv_30m : -6.49, mv_60m: -8.77</t>
+          <t>mv :-1.56, mv_2m:0.83,      mv_5m : 2.10, mv_30m : -4.97, mv_60m: 2.71</t>
         </is>
       </c>
       <c r="Z306" t="inlineStr">
@@ -29255,41 +29319,43 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>3535</v>
+        <v>4093</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45726.85710215278</v>
+        <v>45730.08685921296</v>
       </c>
       <c r="E307" t="n">
-        <v>225.22</v>
+        <v>192.49</v>
       </c>
       <c r="F307" t="n">
-        <v>3153.08</v>
+        <v>3272.33</v>
       </c>
       <c r="G307" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>45730.13614768518</v>
+      </c>
+      <c r="I307" t="n">
+        <v>192.765</v>
+      </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>3277.005</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L307" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -29305,25 +29371,29 @@
         <v>0.45</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>2.494999999999727</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t>FA1A5AB6A84DC4A000</t>
-        </is>
-      </c>
-      <c r="T307" t="inlineStr"/>
+          <t>FA1A5EDF2781BB2000</t>
+        </is>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>FA1A5EE11C3684A000</t>
+        </is>
+      </c>
       <c r="U307" t="inlineStr"/>
       <c r="V307" t="inlineStr"/>
       <c r="W307" t="inlineStr"/>
       <c r="X307" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.46,      mv_5m : -0.80, mv_30m : -7.96, mv_60m: -9.53</t>
+          <t>mv :-1.89, mv_2m:0.49,      mv_5m : 7.74, mv_30m : -11.67, mv_60m: 15.27</t>
         </is>
       </c>
       <c r="Z307" t="inlineStr">
@@ -29338,75 +29408,81 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>3537</v>
+        <v>4094</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45726.85723003472</v>
+        <v>45730.14837975695</v>
       </c>
       <c r="E308" t="n">
-        <v>325.36</v>
+        <v>222.62</v>
       </c>
       <c r="F308" t="n">
-        <v>3253.6</v>
+        <v>3116.68</v>
       </c>
       <c r="G308" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>45730.20127149305</v>
+      </c>
+      <c r="I308" t="n">
+        <v>222.97</v>
+      </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>3121.58</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L308" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O308" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P308" t="n">
         <v>1.006</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2.740000000000091</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t>FA1A5AB6B316BB2000</t>
+          <t>FA1A5EF36DE204A000</t>
         </is>
       </c>
       <c r="T308" t="inlineStr"/>
       <c r="U308" t="inlineStr"/>
       <c r="V308" t="inlineStr"/>
-      <c r="W308" t="inlineStr"/>
+      <c r="W308" t="inlineStr">
+        <is>
+          <t>FA1A5EF7BECF3B2000</t>
+        </is>
+      </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y308" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.22,      mv_5m : -0.55, mv_30m : -8.39, mv_60m: -7.74</t>
+          <t>mv :3.52, mv_2m:4.02,      mv_5m : 7.42, mv_30m : 11.07, mv_60m: 2.37</t>
         </is>
       </c>
       <c r="Z308" t="inlineStr">
@@ -29421,75 +29497,81 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>3538</v>
+        <v>4095</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45726.8603984375</v>
+        <v>45730.14930753472</v>
       </c>
       <c r="E309" t="n">
-        <v>265.74</v>
+        <v>349.99</v>
       </c>
       <c r="F309" t="n">
-        <v>3188.88</v>
+        <v>2799.92</v>
       </c>
       <c r="G309" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>45731.04202106482</v>
+      </c>
+      <c r="I309" t="n">
+        <v>350</v>
+      </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L309" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O309" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P309" t="n">
         <v>1.006</v>
       </c>
       <c r="Q309" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>-2.030000000000073</v>
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t>FA1A5AB7BE6EBB2000</t>
+          <t>FA1A5EF3BC2BC4A000</t>
         </is>
       </c>
       <c r="T309" t="inlineStr"/>
       <c r="U309" t="inlineStr"/>
       <c r="V309" t="inlineStr"/>
-      <c r="W309" t="inlineStr"/>
+      <c r="W309" t="inlineStr">
+        <is>
+          <t>FA1A5FCB3A3B84A000</t>
+        </is>
+      </c>
       <c r="X309" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y309" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.05,      mv_5m : 0.16, mv_30m : 0.60, mv_60m: -1.90</t>
+          <t>mv :3.63, mv_2m:0.02,      mv_5m : 0.16, mv_30m : 0.34, mv_60m: 0.58</t>
         </is>
       </c>
       <c r="Z309" t="inlineStr">
@@ -29504,75 +29586,81 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>3539</v>
+        <v>4096</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45726.86050814815</v>
+        <v>45730.16387517361</v>
       </c>
       <c r="E310" t="n">
-        <v>93.91</v>
+        <v>815.37</v>
       </c>
       <c r="F310" t="n">
-        <v>3286.85</v>
+        <v>3261.48</v>
       </c>
       <c r="G310" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H310" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>45730.27913216435</v>
+      </c>
+      <c r="I310" t="n">
+        <v>818.79</v>
+      </c>
       <c r="J310" t="n">
-        <v>0</v>
+        <v>3275.16</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L310" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O310" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P310" t="n">
         <v>1.006</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>11.57999999999984</v>
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>FA1A5AB7C7B0BB2000</t>
+          <t>FA1A5EF8894D7B2000</t>
         </is>
       </c>
       <c r="T310" t="inlineStr"/>
       <c r="U310" t="inlineStr"/>
       <c r="V310" t="inlineStr"/>
-      <c r="W310" t="inlineStr"/>
+      <c r="W310" t="inlineStr">
+        <is>
+          <t>FA1A5F105B1944A000</t>
+        </is>
+      </c>
       <c r="X310" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y310" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:-0.48,      mv_5m : -0.39, mv_30m : -1.59, mv_60m: -3.94</t>
+          <t>mv :2.99, mv_2m:-1.48,      mv_5m : 1.38, mv_30m : -3.39, mv_60m: 4.56</t>
         </is>
       </c>
       <c r="Z310" t="inlineStr">
@@ -29587,48 +29675,50 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>3540</v>
+        <v>4097</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45726.86078166667</v>
+        <v>45730.24326982639</v>
       </c>
       <c r="E311" t="n">
-        <v>42.4</v>
+        <v>159.57</v>
       </c>
       <c r="F311" t="n">
-        <v>3264.8</v>
+        <v>3191.4</v>
       </c>
       <c r="G311" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>45730.28527601852</v>
+      </c>
+      <c r="I311" t="n">
+        <v>159.5539</v>
+      </c>
       <c r="J311" t="n">
-        <v>0</v>
+        <v>3191.078</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L311" t="n">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N311" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O311" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P311" t="n">
         <v>1.006</v>
@@ -29637,25 +29727,37 @@
         <v>0.45</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>-2.522000000000117</v>
       </c>
       <c r="S311" t="inlineStr">
         <is>
-          <t>FA1A5AB7DEC2FB2000</t>
+          <t>FA1A5F12B4373B2000</t>
         </is>
       </c>
       <c r="T311" t="inlineStr"/>
-      <c r="U311" t="inlineStr"/>
-      <c r="V311" t="inlineStr"/>
-      <c r="W311" t="inlineStr"/>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>FA1A5F13B22B84A000</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>FA1A5F12F2667B2000</t>
+        </is>
+      </c>
+      <c r="W311" t="inlineStr">
+        <is>
+          <t>FA1A5F12B4F7FB2000</t>
+        </is>
+      </c>
       <c r="X311" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>maxminnorm</t>
         </is>
       </c>
       <c r="Y311" t="inlineStr">
         <is>
-          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -2.01, mv_60m: -5.12</t>
+          <t>mv :3.99, mv_2m:-0.03,      mv_5m : 0.94, mv_30m : 4.07, mv_60m: 8.98</t>
         </is>
       </c>
       <c r="Z311" t="inlineStr">
@@ -29670,48 +29772,50 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>3541</v>
+        <v>4098</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45726.86087146991</v>
+        <v>45730.26001116898</v>
       </c>
       <c r="E312" t="n">
-        <v>65.33</v>
+        <v>159.3198</v>
       </c>
       <c r="F312" t="n">
-        <v>3266.5</v>
+        <v>3186.396</v>
       </c>
       <c r="G312" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>45730.30067361111</v>
+      </c>
+      <c r="I312" t="n">
+        <v>159.27</v>
+      </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>3185.4</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L312" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N312" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O312" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P312" t="n">
         <v>1.006</v>
@@ -29720,25 +29824,37 @@
         <v>0.45</v>
       </c>
       <c r="R312" t="n">
-        <v>0</v>
+        <v>-3.196000000000095</v>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>FA1A5AB7E65884A000</t>
+          <t>FA1A5F1838C17B2000</t>
         </is>
       </c>
       <c r="T312" t="inlineStr"/>
-      <c r="U312" t="inlineStr"/>
-      <c r="V312" t="inlineStr"/>
-      <c r="W312" t="inlineStr"/>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>FA1A5F18C3FC3B2000</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>FA1A5F1876EE04A000</t>
+        </is>
+      </c>
+      <c r="W312" t="inlineStr">
+        <is>
+          <t>FA1A5F18398104A000</t>
+        </is>
+      </c>
       <c r="X312" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>maxminnorm</t>
         </is>
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -1.62, mv_60m: -3.93</t>
+          <t>mv :5.75, mv_2m:0.13,      mv_5m : 1.53, mv_30m : -0.57, mv_60m: 2.16</t>
         </is>
       </c>
       <c r="Z312" t="inlineStr">
@@ -29753,75 +29869,81 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>3542</v>
+        <v>4099</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45726.86093787037</v>
+        <v>45731.16195413195</v>
       </c>
       <c r="E313" t="n">
-        <v>161.37</v>
+        <v>50.17</v>
       </c>
       <c r="F313" t="n">
-        <v>3227.4</v>
+        <v>3261.05</v>
       </c>
       <c r="G313" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>45731.33097373843</v>
+      </c>
+      <c r="I313" t="n">
+        <v>50</v>
+      </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L313" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O313" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P313" t="n">
         <v>1.006</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>-13.53000000000018</v>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>FA1A5AB7EBF204A000</t>
+          <t>FA1A60417E2904A000</t>
         </is>
       </c>
       <c r="T313" t="inlineStr"/>
       <c r="U313" t="inlineStr"/>
       <c r="V313" t="inlineStr"/>
-      <c r="W313" t="inlineStr"/>
+      <c r="W313" t="inlineStr">
+        <is>
+          <t>FA1A606C27DC3B2000</t>
+        </is>
+      </c>
       <c r="X313" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y313" t="inlineStr">
         <is>
-          <t>mv :-0.98, mv_2m:-0.47,      mv_5m : -0.48, mv_30m : -3.55, mv_60m: -5.72</t>
+          <t>mv :1.39, mv_2m:2.26,      mv_5m : 4.25, mv_30m : 7.64, mv_60m: 0.32</t>
         </is>
       </c>
       <c r="Z313" t="inlineStr">
@@ -29836,75 +29958,81 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>3543</v>
+        <v>4100</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45726.86132887731</v>
+        <v>45731.18759912037</v>
       </c>
       <c r="E314" t="n">
-        <v>149.73</v>
+        <v>43.3497</v>
       </c>
       <c r="F314" t="n">
-        <v>3294.06</v>
+        <v>2861.0802</v>
       </c>
       <c r="G314" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H314" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>45731.31673101852</v>
+      </c>
+      <c r="I314" t="n">
+        <v>43.6109</v>
+      </c>
       <c r="J314" t="n">
-        <v>0</v>
+        <v>2878.3194</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L314" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N314" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O314" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P314" t="n">
         <v>1.006</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>14.76919999999998</v>
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>FA1A5AB80CEFFB2000</t>
+          <t>FA1A6049F1F204A000</t>
         </is>
       </c>
       <c r="T314" t="inlineStr"/>
       <c r="U314" t="inlineStr"/>
       <c r="V314" t="inlineStr"/>
-      <c r="W314" t="inlineStr"/>
+      <c r="W314" t="inlineStr">
+        <is>
+          <t>FA1A6059DC9384A000</t>
+        </is>
+      </c>
       <c r="X314" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>mv :-0.57, mv_2m:-0.05,      mv_5m : -0.64, mv_30m : -4.35, mv_60m: -7.75</t>
+          <t>mv :-1.48, mv_2m:0.54,      mv_5m : -2.50, mv_30m : -10.22, mv_60m: 1.72</t>
         </is>
       </c>
       <c r="Z314" t="inlineStr">
@@ -29919,75 +30047,81 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>3544</v>
+        <v>4101</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45726.86139648148</v>
+        <v>45734.15098078704</v>
       </c>
       <c r="E315" t="n">
-        <v>210.87</v>
+        <v>484.8008</v>
       </c>
       <c r="F315" t="n">
-        <v>3163.05</v>
+        <v>2908.8048</v>
       </c>
       <c r="G315" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>45734.22751063657</v>
+      </c>
+      <c r="I315" t="n">
+        <v>487.82</v>
+      </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>2926.92</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L315" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O315" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P315" t="n">
-        <v>1.006</v>
+        <v>1.0065</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R315" t="n">
-        <v>0</v>
+        <v>16.00520000000018</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>FA1A5AB812A384A000</t>
+          <t>FA1A641AA54844A000</t>
         </is>
       </c>
       <c r="T315" t="inlineStr"/>
       <c r="U315" t="inlineStr"/>
       <c r="V315" t="inlineStr"/>
-      <c r="W315" t="inlineStr"/>
+      <c r="W315" t="inlineStr">
+        <is>
+          <t>FA1A6421BB84C4A000</t>
+        </is>
+      </c>
       <c r="X315" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y315" t="inlineStr">
         <is>
-          <t>mv :-0.57, mv_2m:-0.05,      mv_5m : -0.64, mv_30m : -5.35, mv_60m: -8.28</t>
+          <t>mv :-14.25, mv_2m:1.19,      mv_5m : 2.65, mv_30m : 0.38, mv_60m: 12.04</t>
         </is>
       </c>
       <c r="Z315" t="inlineStr">
@@ -30002,75 +30136,81 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>3545</v>
+        <v>4102</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45726.86149119213</v>
+        <v>45734.19213497685</v>
       </c>
       <c r="E316" t="n">
-        <v>429.63</v>
+        <v>34.645</v>
       </c>
       <c r="F316" t="n">
-        <v>3007.41</v>
+        <v>3291.275</v>
       </c>
       <c r="G316" t="n">
-        <v>1.111</v>
+        <v>1.28</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>45734.23457677083</v>
+      </c>
+      <c r="I316" t="n">
+        <v>34.6752</v>
+      </c>
       <c r="J316" t="n">
-        <v>0</v>
+        <v>3294.144</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L316" t="n">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O316" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P316" t="n">
         <v>1.006</v>
       </c>
       <c r="Q316" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R316" t="n">
-        <v>0</v>
+        <v>0.198999999999687</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>FA1A5AB81AA27B2000</t>
+          <t>FA1A642835A9FB2000</t>
         </is>
       </c>
       <c r="T316" t="inlineStr"/>
       <c r="U316" t="inlineStr"/>
       <c r="V316" t="inlineStr"/>
-      <c r="W316" t="inlineStr"/>
+      <c r="W316" t="inlineStr">
+        <is>
+          <t>FA1A6428753144A000</t>
+        </is>
+      </c>
       <c r="X316" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>mv :-0.57, mv_2m:-0.25,      mv_5m : -1.27, mv_30m : -6.17, mv_60m: -9.28</t>
+          <t>mv :-5.41, mv_2m:0.52,      mv_5m : 0.74, mv_30m : 3.72, mv_60m: 4.37</t>
         </is>
       </c>
       <c r="Z316" t="inlineStr">
@@ -30085,75 +30225,81 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>3546</v>
+        <v>4103</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45726.86160655093</v>
+        <v>45734.20047126157</v>
       </c>
       <c r="E317" t="n">
-        <v>167.4</v>
+        <v>98.98860000000001</v>
       </c>
       <c r="F317" t="n">
-        <v>3180.6</v>
+        <v>3266.6238</v>
       </c>
       <c r="G317" t="n">
-        <v>1.111</v>
+        <v>1.09</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>45734.27698543981</v>
+      </c>
+      <c r="I317" t="n">
+        <v>99.1327</v>
+      </c>
       <c r="J317" t="n">
-        <v>0</v>
+        <v>3271.3791</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L317" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N317" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O317" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P317" t="n">
         <v>1.006</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>2.475300000000261</v>
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t>FA1A5AB8245D84A000</t>
+          <t>FA1A642AF509BB2000</t>
         </is>
       </c>
       <c r="T317" t="inlineStr"/>
       <c r="U317" t="inlineStr"/>
       <c r="V317" t="inlineStr"/>
-      <c r="W317" t="inlineStr"/>
+      <c r="W317" t="inlineStr">
+        <is>
+          <t>FA1A642F59A5C4A000</t>
+        </is>
+      </c>
       <c r="X317" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>mv :-0.05, mv_2m:-0.10,      mv_5m : -1.51, mv_30m : -7.85, mv_60m: -8.09</t>
+          <t>mv :-4.59, mv_2m:-0.03,      mv_5m : -0.11, mv_30m : 0.05, mv_60m: 0.82</t>
         </is>
       </c>
       <c r="Z317" t="inlineStr">
@@ -30168,75 +30314,81 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>3547</v>
+        <v>4104</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45726.86170997685</v>
+        <v>45734.20338975694</v>
       </c>
       <c r="E318" t="n">
-        <v>401.03</v>
+        <v>174.0133</v>
       </c>
       <c r="F318" t="n">
-        <v>3208.24</v>
+        <v>2784.2128</v>
       </c>
       <c r="G318" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H318" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>45734.25894493055</v>
+      </c>
+      <c r="I318" t="n">
+        <v>173.9894</v>
+      </c>
       <c r="J318" t="n">
-        <v>0</v>
+        <v>2783.8304</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L318" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N318" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O318" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P318" t="n">
         <v>1.006</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>-2.552399999999961</v>
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>FA1A5AB82D17C4A000</t>
+          <t>FA1A642BEB4784A000</t>
         </is>
       </c>
       <c r="T318" t="inlineStr"/>
       <c r="U318" t="inlineStr"/>
       <c r="V318" t="inlineStr"/>
-      <c r="W318" t="inlineStr"/>
+      <c r="W318" t="inlineStr">
+        <is>
+          <t>FA1A642EEE1744A000</t>
+        </is>
+      </c>
       <c r="X318" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y318" t="inlineStr">
         <is>
-          <t>mv :-0.05, mv_2m:0.51,      mv_5m : -0.89, mv_30m : -7.86, mv_60m: -8.12</t>
+          <t>mv :-4.14, mv_2m:-0.07,      mv_5m : 0.24, mv_30m : 0.56, mv_60m: 1.72</t>
         </is>
       </c>
       <c r="Z318" t="inlineStr">
@@ -30251,75 +30403,81 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>3549</v>
+        <v>4105</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45726.86679579861</v>
+        <v>45734.22552615741</v>
       </c>
       <c r="E319" t="n">
-        <v>319.51</v>
+        <v>174.2198</v>
       </c>
       <c r="F319" t="n">
-        <v>3195.1</v>
+        <v>2787.5168</v>
       </c>
       <c r="G319" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H319" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>45735.05975487269</v>
+      </c>
+      <c r="I319" t="n">
+        <v>174.26</v>
+      </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>2788.16</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L319" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N319" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O319" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P319" t="n">
         <v>1.006</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R319" t="n">
-        <v>0</v>
+        <v>-1.526800000000021</v>
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t>FA1A5AB9DA3644A000</t>
+          <t>FA1A64333709FB2000</t>
         </is>
       </c>
       <c r="T319" t="inlineStr"/>
       <c r="U319" t="inlineStr"/>
       <c r="V319" t="inlineStr"/>
-      <c r="W319" t="inlineStr"/>
+      <c r="W319" t="inlineStr">
+        <is>
+          <t>FA1A6448375984A000</t>
+        </is>
+      </c>
       <c r="X319" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y319" t="inlineStr">
         <is>
-          <t>mv :-0.05, mv_2m:0.51,      mv_5m : -1.14, mv_30m : -8.20, mv_60m: -8.18</t>
+          <t>mv :-4.84, mv_2m:-0.08,      mv_5m : -0.58, mv_30m : 0.67, mv_60m: 1.30</t>
         </is>
       </c>
       <c r="Z319" t="inlineStr">
@@ -30334,7 +30492,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>3550</v>
+        <v>4106</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
@@ -30342,67 +30500,73 @@
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45726.86687899305</v>
+        <v>45735.16537862268</v>
       </c>
       <c r="E320" t="n">
-        <v>244.62</v>
+        <v>260.1</v>
       </c>
       <c r="F320" t="n">
-        <v>3180.06</v>
+        <v>3121.2</v>
       </c>
       <c r="G320" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>45735.2930058912</v>
+      </c>
+      <c r="I320" t="n">
+        <v>260.07</v>
+      </c>
       <c r="J320" t="n">
-        <v>0</v>
+        <v>3120.84</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L320" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N320" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O320" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P320" t="n">
         <v>1.006</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>-2.519999999999673</v>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>FA1A5AB9E13C44A000</t>
+          <t>FA1A6568FB1E44A000</t>
         </is>
       </c>
       <c r="T320" t="inlineStr"/>
       <c r="U320" t="inlineStr"/>
       <c r="V320" t="inlineStr"/>
-      <c r="W320" t="inlineStr"/>
+      <c r="W320" t="inlineStr">
+        <is>
+          <t>FA1A657E7C40FB2000</t>
+        </is>
+      </c>
       <c r="X320" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y320" t="inlineStr">
         <is>
-          <t>mv :-0.05, mv_2m:0.52,      mv_5m : -1.13, mv_30m : -8.16, mv_60m: -4.98</t>
+          <t>mv :-41.16, mv_2m:-0.19,      mv_5m : 2.92, mv_30m : -1.68, mv_60m: 10.10</t>
         </is>
       </c>
       <c r="Z320" t="inlineStr">
@@ -30417,75 +30581,81 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>3551</v>
+        <v>4107</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45726.87449665509</v>
+        <v>45735.16697527777</v>
       </c>
       <c r="E321" t="n">
-        <v>19.34</v>
+        <v>709.2</v>
       </c>
       <c r="F321" t="n">
-        <v>3287.8</v>
+        <v>2836.8</v>
       </c>
       <c r="G321" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>45735.21820920139</v>
+      </c>
+      <c r="I321" t="n">
+        <v>708.36</v>
+      </c>
       <c r="J321" t="n">
-        <v>0</v>
+        <v>2833.44</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L321" t="n">
-        <v>170</v>
+        <v>4</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N321" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O321" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P321" t="n">
         <v>1.006</v>
       </c>
       <c r="Q321" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>-5.450000000000127</v>
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t>FA1A5ABC63F73B2000</t>
+          <t>FA1A656981DB04A000</t>
         </is>
       </c>
       <c r="T321" t="inlineStr"/>
       <c r="U321" t="inlineStr"/>
       <c r="V321" t="inlineStr"/>
-      <c r="W321" t="inlineStr"/>
+      <c r="W321" t="inlineStr">
+        <is>
+          <t>FA1A656D1119C4A000</t>
+        </is>
+      </c>
       <c r="X321" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y321" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.94,      mv_5m : -0.11, mv_30m : -6.42, mv_60m: -3.46</t>
+          <t>mv :-40.66, mv_2m:0.30,      mv_5m : 4.97, mv_30m : -4.32, mv_60m: 20.39</t>
         </is>
       </c>
       <c r="Z321" t="inlineStr">
@@ -30500,75 +30670,81 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>3552</v>
+        <v>4108</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45726.87465159722</v>
+        <v>45735.18447006944</v>
       </c>
       <c r="E322" t="n">
-        <v>58.5</v>
+        <v>150.9999</v>
       </c>
       <c r="F322" t="n">
-        <v>3276</v>
+        <v>3019.998</v>
       </c>
       <c r="G322" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>45735.41974148148</v>
+      </c>
+      <c r="I322" t="n">
+        <v>149.431</v>
+      </c>
       <c r="J322" t="n">
-        <v>0</v>
+        <v>2988.62</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L322" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O322" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P322" t="n">
         <v>1.006</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R322" t="n">
-        <v>0</v>
+        <v>-33.5879999999997</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>FA1A5ABC710ABB2000</t>
+          <t>FA1A656F45F304A000</t>
         </is>
       </c>
       <c r="T322" t="inlineStr"/>
       <c r="U322" t="inlineStr"/>
       <c r="V322" t="inlineStr"/>
-      <c r="W322" t="inlineStr"/>
+      <c r="W322" t="inlineStr">
+        <is>
+          <t>FA1A65A0725B7B2000</t>
+        </is>
+      </c>
       <c r="X322" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y322" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -7.76, mv_60m: -1.38</t>
+          <t>mv :-41.12, mv_2m:0.52,      mv_5m : 0.64, mv_30m : 0.23, mv_60m: -0.39</t>
         </is>
       </c>
       <c r="Z322" t="inlineStr">
@@ -30583,75 +30759,81 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>3553</v>
+        <v>4109</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45726.87471871528</v>
+        <v>45736.21568609954</v>
       </c>
       <c r="E323" t="n">
-        <v>50.38</v>
+        <v>128.5494</v>
       </c>
       <c r="F323" t="n">
-        <v>3274.7</v>
+        <v>3213.735</v>
       </c>
       <c r="G323" t="n">
-        <v>1.111</v>
+        <v>1.07</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>45736.30331121528</v>
+      </c>
+      <c r="I323" t="n">
+        <v>129.2323</v>
+      </c>
       <c r="J323" t="n">
-        <v>0</v>
+        <v>3230.8075</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L323" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O323" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P323" t="n">
-        <v>1.006</v>
+        <v>1.0075</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>14.83250000000022</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>FA1A5ABC76B604A000</t>
+          <t>FA1A66C326D3BB2000</t>
         </is>
       </c>
       <c r="T323" t="inlineStr"/>
       <c r="U323" t="inlineStr"/>
       <c r="V323" t="inlineStr"/>
-      <c r="W323" t="inlineStr"/>
+      <c r="W323" t="inlineStr">
+        <is>
+          <t>FA1A66CCED227B2000</t>
+        </is>
+      </c>
       <c r="X323" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y323" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -7.50, mv_60m: -1.37</t>
+          <t>mv :28.44, mv_2m:4.45,      mv_5m : -0.66, mv_30m : 11.92, mv_60m: 6.07</t>
         </is>
       </c>
       <c r="Z323" t="inlineStr">
@@ -30666,41 +30848,43 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>3554</v>
+        <v>4110</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45726.87478361111</v>
+        <v>45737.07054586805</v>
       </c>
       <c r="E324" t="n">
-        <v>29.33</v>
+        <v>260.52</v>
       </c>
       <c r="F324" t="n">
-        <v>3284.96</v>
+        <v>3126.24</v>
       </c>
       <c r="G324" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H324" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>45741.06419210648</v>
+      </c>
+      <c r="I324" t="n">
+        <v>264.97</v>
+      </c>
       <c r="J324" t="n">
-        <v>0</v>
+        <v>3179.64</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L324" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N324" t="n">
@@ -30710,31 +30894,35 @@
         <v>1.005</v>
       </c>
       <c r="P324" t="n">
-        <v>1.006</v>
+        <v>1.0075</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>51.24000000000054</v>
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>FA1A5ABC7C2D04A000</t>
-        </is>
-      </c>
-      <c r="T324" t="inlineStr"/>
+          <t>FA1A67DCE7B53B2000</t>
+        </is>
+      </c>
+      <c r="T324" t="inlineStr">
+        <is>
+          <t>FA1A67DDE60804A000</t>
+        </is>
+      </c>
       <c r="U324" t="inlineStr"/>
       <c r="V324" t="inlineStr"/>
       <c r="W324" t="inlineStr"/>
       <c r="X324" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_3</t>
         </is>
       </c>
       <c r="Y324" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.95,      mv_5m : -0.11, mv_30m : -8.07, mv_60m: -2.10</t>
+          <t>mv :-12.79, mv_2m:0.08,      mv_5m : 7.29, mv_30m : 18.93, mv_60m: 51.15</t>
         </is>
       </c>
       <c r="Z324" t="inlineStr">
@@ -30749,75 +30937,81 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>3555</v>
+        <v>4111</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45726.87485008102</v>
+        <v>45737.19027971064</v>
       </c>
       <c r="E325" t="n">
-        <v>119.53</v>
+        <v>822.61</v>
       </c>
       <c r="F325" t="n">
-        <v>3227.31</v>
+        <v>2467.83</v>
       </c>
       <c r="G325" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>45737.45841315972</v>
+      </c>
+      <c r="I325" t="n">
+        <v>823.87</v>
+      </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>2471.61</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="L325" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O325" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P325" t="n">
         <v>1.006</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R325" t="n">
-        <v>0</v>
+        <v>1.7000000000002</v>
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>FA1A5ABC81C984A000</t>
+          <t>FA1A68045E3E44A000</t>
         </is>
       </c>
       <c r="T325" t="inlineStr"/>
       <c r="U325" t="inlineStr"/>
       <c r="V325" t="inlineStr"/>
-      <c r="W325" t="inlineStr"/>
+      <c r="W325" t="inlineStr">
+        <is>
+          <t>FA1A6824E007C4A000</t>
+        </is>
+      </c>
       <c r="X325" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.97,      mv_5m : -0.09, mv_30m : -9.65, mv_60m: -2.68</t>
+          <t>mv :-16.08, mv_2m:1.15,      mv_5m : 3.74, mv_30m : -2.44, mv_60m: -1.05</t>
         </is>
       </c>
       <c r="Z325" t="inlineStr">
@@ -30832,75 +31026,81 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>3556</v>
+        <v>4113</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>PCAR</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45726.87516543981</v>
+        <v>45738.19040491898</v>
       </c>
       <c r="E326" t="n">
-        <v>102.64</v>
+        <v>66.47</v>
       </c>
       <c r="F326" t="n">
-        <v>3284.48</v>
+        <v>2991.15</v>
       </c>
       <c r="G326" t="n">
-        <v>1.111</v>
+        <v>1.13</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>45738.24602238426</v>
+      </c>
+      <c r="I326" t="n">
+        <v>66.492</v>
+      </c>
       <c r="J326" t="n">
-        <v>0</v>
+        <v>2992.14</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L326" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O326" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P326" t="n">
         <v>1.006</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>-1.240999999999763</v>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>FA1A5ABC9C6584A000</t>
+          <t>FA1A694DFFCF44A000</t>
         </is>
       </c>
       <c r="T326" t="inlineStr"/>
       <c r="U326" t="inlineStr"/>
       <c r="V326" t="inlineStr"/>
-      <c r="W326" t="inlineStr"/>
+      <c r="W326" t="inlineStr">
+        <is>
+          <t>FA1A6950D64C84A000</t>
+        </is>
+      </c>
       <c r="X326" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y326" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.97,      mv_5m : -0.09, mv_30m : -9.46, mv_60m: -2.86</t>
+          <t>mv :-7.46, mv_2m:0.44,      mv_5m : -1.47, mv_30m : -6.18, mv_60m: -2.60</t>
         </is>
       </c>
       <c r="Z326" t="inlineStr">
@@ -30915,75 +31115,81 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>3557</v>
+        <v>4114</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45726.87525042824</v>
+        <v>45738.21178555556</v>
       </c>
       <c r="E327" t="n">
-        <v>111.64</v>
+        <v>304.7721</v>
       </c>
       <c r="F327" t="n">
-        <v>3237.56</v>
+        <v>2742.9489</v>
       </c>
       <c r="G327" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H327" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>45741.02655521991</v>
+      </c>
+      <c r="I327" t="n">
+        <v>305.69</v>
+      </c>
       <c r="J327" t="n">
-        <v>0</v>
+        <v>2751.21</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L327" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O327" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P327" t="n">
-        <v>1.006</v>
+        <v>1.0065</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>6.13110000000017</v>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>FA1A5ABCA39004A000</t>
+          <t>FA1A69550BC97B2000</t>
         </is>
       </c>
       <c r="T327" t="inlineStr"/>
       <c r="U327" t="inlineStr"/>
       <c r="V327" t="inlineStr"/>
-      <c r="W327" t="inlineStr"/>
+      <c r="W327" t="inlineStr">
+        <is>
+          <t>FA1A696E78CC84A000</t>
+        </is>
+      </c>
       <c r="X327" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y327" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:2.01,      mv_5m : -0.00, mv_30m : -9.79, mv_60m: -7.77</t>
+          <t>mv :-9.02, mv_2m:-0.34,      mv_5m : -0.16, mv_30m : 10.16, mv_60m: 0.25</t>
         </is>
       </c>
       <c r="Z327" t="inlineStr">
@@ -30998,24 +31204,24 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>3558</v>
+        <v>4115</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45726.87535752315</v>
+        <v>45741.14519493056</v>
       </c>
       <c r="E328" t="n">
-        <v>224.66</v>
+        <v>291.59</v>
       </c>
       <c r="F328" t="n">
-        <v>3145.24</v>
+        <v>3207.49</v>
       </c>
       <c r="G328" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H328" s="2" t="n">
         <v>25934</v>
@@ -31028,45 +31234,53 @@
         <v>0</v>
       </c>
       <c r="L328" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N328" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O328" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P328" t="n">
         <v>1.006</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R328" t="n">
         <v>0</v>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>FA1A5ABCAC9A04A000</t>
-        </is>
-      </c>
-      <c r="T328" t="inlineStr"/>
+          <t>FA1A6D1BDE37BB2000</t>
+        </is>
+      </c>
+      <c r="T328" t="inlineStr">
+        <is>
+          <t>FA1A6D1C31003B2000</t>
+        </is>
+      </c>
       <c r="U328" t="inlineStr"/>
       <c r="V328" t="inlineStr"/>
-      <c r="W328" t="inlineStr"/>
+      <c r="W328" t="inlineStr">
+        <is>
+          <t>FA1A6D1C9BDC44A000</t>
+        </is>
+      </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y328" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.37, mv_30m : -10.63, mv_60m: -8.25</t>
+          <t>mv :-0.92, mv_2m:0.08,      mv_5m : 0.03, mv_30m : -0.05, mv_60m: 0.21</t>
         </is>
       </c>
       <c r="Z328" t="inlineStr">
@@ -31074,82 +31288,96 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA328" t="inlineStr"/>
+      <c r="AA328" t="inlineStr">
+        <is>
+          <t>FA1A6D1C31CAC4A000</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>3559</v>
+        <v>4116</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45726.87543320602</v>
+        <v>45741.20273938657</v>
       </c>
       <c r="E329" t="n">
-        <v>787.0599999999999</v>
+        <v>24.197</v>
       </c>
       <c r="F329" t="n">
-        <v>3148.24</v>
+        <v>3000.428</v>
       </c>
       <c r="G329" t="n">
-        <v>1.111</v>
+        <v>1.36</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>45741.83583892361</v>
+      </c>
+      <c r="I329" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J329" t="n">
-        <v>0</v>
+        <v>2988.4</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L329" t="n">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O329" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P329" t="n">
         <v>1.006</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>-14.84799999999979</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>FA1A5ABCB2FB44A000</t>
-        </is>
-      </c>
-      <c r="T329" t="inlineStr"/>
+          <t>FA1A6D2ED58A3B2000</t>
+        </is>
+      </c>
+      <c r="T329" t="inlineStr">
+        <is>
+          <t>FA1A6D2F102CBB2000</t>
+        </is>
+      </c>
       <c r="U329" t="inlineStr"/>
       <c r="V329" t="inlineStr"/>
-      <c r="W329" t="inlineStr"/>
+      <c r="W329" t="inlineStr">
+        <is>
+          <t>FA1A6D3F86DF04A000</t>
+        </is>
+      </c>
       <c r="X329" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.35, mv_30m : -10.58, mv_60m: -8.18</t>
+          <t>mv :-5.16, mv_2m:0.03,      mv_5m : -0.11, mv_30m : -0.18, mv_60m: -3.92</t>
         </is>
       </c>
       <c r="Z329" t="inlineStr">
@@ -31157,82 +31385,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA329" t="inlineStr"/>
+      <c r="AA329" t="inlineStr">
+        <is>
+          <t>FA1A6D2F10E984A000</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>3560</v>
+        <v>4119</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45726.8755080787</v>
+        <v>45742.19684638889</v>
       </c>
       <c r="E330" t="n">
-        <v>837.03</v>
+        <v>299.5</v>
       </c>
       <c r="F330" t="n">
-        <v>2511.09</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3294.5</v>
+      </c>
+      <c r="G330" t="inlineStr"/>
       <c r="H330" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>45751.03620291666</v>
+      </c>
+      <c r="I330" t="n">
+        <v>265.65</v>
+      </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>2922.15</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L330" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O330" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P330" t="n">
         <v>1.006</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R330" t="n">
-        <v>0</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
       <c r="S330" t="inlineStr">
         <is>
-          <t>FA1A5ABCB94E7B2000</t>
+          <t>FA1A6E767B017B2000</t>
         </is>
       </c>
       <c r="T330" t="inlineStr"/>
       <c r="U330" t="inlineStr"/>
       <c r="V330" t="inlineStr"/>
-      <c r="W330" t="inlineStr"/>
+      <c r="W330" t="inlineStr">
+        <is>
+          <t>FA1A79C8FBC244A000</t>
+        </is>
+      </c>
       <c r="X330" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.36, mv_30m : -10.15, mv_60m: -7.21</t>
+          <t>mv :-31.71, mv_2m:0.40,      mv_5m : 1.20, mv_30m : -2.38, mv_60m: -3.82</t>
         </is>
       </c>
       <c r="Z330" t="inlineStr">
@@ -31247,75 +31481,85 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>3561</v>
+        <v>4120</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45726.87558288194</v>
+        <v>45742.26677307871</v>
       </c>
       <c r="E331" t="n">
-        <v>88.90000000000001</v>
+        <v>720.85</v>
       </c>
       <c r="F331" t="n">
-        <v>3289.3</v>
+        <v>2883.4</v>
       </c>
       <c r="G331" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>45743.07161030093</v>
+      </c>
+      <c r="I331" t="n">
+        <v>712.42</v>
+      </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>2849.68</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L331" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O331" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P331" t="n">
         <v>1.006</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>-35.82100000000025</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>FA1A5ABCBFA084A000</t>
-        </is>
-      </c>
-      <c r="T331" t="inlineStr"/>
+          <t>FA1A6E8D876284A000</t>
+        </is>
+      </c>
+      <c r="T331" t="inlineStr">
+        <is>
+          <t>FA1A6E8DD32D04A000</t>
+        </is>
+      </c>
       <c r="U331" t="inlineStr"/>
       <c r="V331" t="inlineStr"/>
-      <c r="W331" t="inlineStr"/>
+      <c r="W331" t="inlineStr">
+        <is>
+          <t>FA1A6E90522904A000</t>
+        </is>
+      </c>
       <c r="X331" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:1.88,      mv_5m : -0.41, mv_30m : -9.64, mv_60m: -7.33</t>
+          <t>mv :-37.17, mv_2m:-0.96,      mv_5m : -0.15, mv_30m : 4.66, mv_60m: -7.47</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr">
@@ -31323,31 +31567,35 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA331" t="inlineStr"/>
+      <c r="AA331" t="inlineStr">
+        <is>
+          <t>FA1A6E8DD3D884A000</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>3562</v>
+        <v>4121</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45726.87565265047</v>
+        <v>45743.09739583333</v>
       </c>
       <c r="E332" t="n">
-        <v>355.46</v>
+        <v>152.134</v>
       </c>
       <c r="F332" t="n">
-        <v>3199.14</v>
+        <v>2738.412</v>
       </c>
       <c r="G332" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H332" s="2" t="n">
         <v>25934</v>
@@ -31360,45 +31608,53 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>cancelled</t>
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O332" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P332" t="n">
         <v>1.006</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R332" t="n">
         <v>0</v>
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>FA1A5ABCC580FB2000</t>
-        </is>
-      </c>
-      <c r="T332" t="inlineStr"/>
+          <t>FA1A6F9F4B8084A000</t>
+        </is>
+      </c>
+      <c r="T332" t="inlineStr">
+        <is>
+          <t>FA1A6F9F948B3B2000</t>
+        </is>
+      </c>
       <c r="U332" t="inlineStr"/>
       <c r="V332" t="inlineStr"/>
-      <c r="W332" t="inlineStr"/>
+      <c r="W332" t="inlineStr">
+        <is>
+          <t>FA1A70D08058BB2000</t>
+        </is>
+      </c>
       <c r="X332" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>mv :-0.91, mv_2m:2.09,      mv_5m : -0.20, mv_30m : -10.91, mv_60m: -8.63</t>
+          <t>mv :-14.76, mv_2m:-1.45,      mv_5m : -2.00, mv_30m : -2.88, mv_60m: -3.09</t>
         </is>
       </c>
       <c r="Z332" t="inlineStr">
@@ -31406,165 +31662,185 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA332" t="inlineStr"/>
+      <c r="AA332" t="inlineStr">
+        <is>
+          <t>FA1A6F9F9544C4A000</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>3563</v>
+        <v>4122</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45726.8757215625</v>
+        <v>45743.09739583333</v>
       </c>
       <c r="E333" t="n">
-        <v>525.33</v>
+        <v>72.235</v>
       </c>
       <c r="F333" t="n">
-        <v>3151.98</v>
+        <v>2744.93</v>
       </c>
       <c r="G333" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>45745.02083980324</v>
+      </c>
+      <c r="I333" t="n">
+        <v>71.6019</v>
+      </c>
       <c r="J333" t="n">
-        <v>0</v>
+        <v>2720.8722</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L333" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N333" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O333" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P333" t="n">
         <v>1.006</v>
       </c>
       <c r="Q333" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R333" t="n">
-        <v>0</v>
+        <v>-26.34780000000005</v>
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>FA1A5ABCCB53BB2000</t>
-        </is>
-      </c>
-      <c r="T333" t="inlineStr"/>
+          <t>FA1A71253C16FB2000</t>
+        </is>
+      </c>
+      <c r="T333" t="inlineStr">
+        <is>
+          <t>FA1A7135DEE03B2000</t>
+        </is>
+      </c>
       <c r="U333" t="inlineStr"/>
       <c r="V333" t="inlineStr"/>
       <c r="W333" t="inlineStr"/>
       <c r="X333" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
-        </is>
-      </c>
-      <c r="Y333" t="inlineStr">
-        <is>
-          <t>mv :-0.91, mv_2m:2.32,      mv_5m : 0.01, mv_30m : -10.87, mv_60m: -8.75</t>
-        </is>
-      </c>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr"/>
       <c r="Z333" t="inlineStr">
         <is>
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA333" t="inlineStr"/>
+      <c r="AA333" t="inlineStr">
+        <is>
+          <t>FA1A6F9F9544C4A000</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>3564</v>
+        <v>4123</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45726.8758112963</v>
+        <v>45745.1103808449</v>
       </c>
       <c r="E334" t="n">
-        <v>166.31</v>
+        <v>89.48909999999999</v>
       </c>
       <c r="F334" t="n">
-        <v>3159.89</v>
+        <v>2774.1621</v>
       </c>
       <c r="G334" t="n">
-        <v>1.111</v>
+        <v>1.08</v>
       </c>
       <c r="H334" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>45745.32922364584</v>
+      </c>
+      <c r="I334" t="n">
+        <v>89.23099999999999</v>
+      </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>2766.161</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L334" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O334" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P334" t="n">
         <v>1.006</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>-10.25109999999995</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>FA1A5ABCD2E43B2000</t>
-        </is>
-      </c>
-      <c r="T334" t="inlineStr"/>
+          <t>FA1A7236C0D3BB2000</t>
+        </is>
+      </c>
+      <c r="T334" t="inlineStr">
+        <is>
+          <t>FA1A723701C184A000</t>
+        </is>
+      </c>
       <c r="U334" t="inlineStr"/>
       <c r="V334" t="inlineStr"/>
-      <c r="W334" t="inlineStr"/>
+      <c r="W334" t="inlineStr">
+        <is>
+          <t>FA1A723A168F04A000</t>
+        </is>
+      </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.35,      mv_5m : -0.34, mv_30m : -11.23, mv_60m: -7.91</t>
+          <t>mv :-20.66, mv_2m:-0.04,      mv_5m : 0.56, mv_30m : 12.41, mv_60m: 6.03, md_60m: 1</t>
         </is>
       </c>
       <c r="Z334" t="inlineStr">
@@ -31572,82 +31848,96 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA334" t="inlineStr"/>
+      <c r="AA334" t="inlineStr">
+        <is>
+          <t>FA1A72370281BB2000</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>3565</v>
+        <v>4125</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>BLK</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45726.87592704861</v>
+        <v>45747.8922386574</v>
       </c>
       <c r="E335" t="n">
-        <v>874.35</v>
+        <v>307.97</v>
       </c>
       <c r="F335" t="n">
-        <v>2623.05</v>
+        <v>2771.73</v>
       </c>
       <c r="G335" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>45748.06009032408</v>
+      </c>
+      <c r="I335" t="n">
+        <v>306.39</v>
+      </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>2757.51</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L335" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O335" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P335" t="n">
         <v>1.006</v>
       </c>
       <c r="Q335" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R335" t="n">
-        <v>0</v>
+        <v>-16.35000000000025</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>FA1A5ABCDCAD84A000</t>
-        </is>
-      </c>
-      <c r="T335" t="inlineStr"/>
+          <t>FA1A75CB9FFA44A000</t>
+        </is>
+      </c>
+      <c r="T335" t="inlineStr">
+        <is>
+          <t>FA1A75CBF3BAFB2000</t>
+        </is>
+      </c>
       <c r="U335" t="inlineStr"/>
       <c r="V335" t="inlineStr"/>
-      <c r="W335" t="inlineStr"/>
+      <c r="W335" t="inlineStr">
+        <is>
+          <t>FA1A75E76A243B2000</t>
+        </is>
+      </c>
       <c r="X335" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y335" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.49,      mv_5m : -1.30, mv_30m : -10.94, mv_60m: -8.03</t>
+          <t>mv :-0.94, mv_2m:0.11,      mv_5m : -0.67, mv_30m : 3.43, mv_60m: 3.78, md_60m: 4</t>
         </is>
       </c>
       <c r="Z335" t="inlineStr">
@@ -31655,82 +31945,96 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA335" t="inlineStr"/>
+      <c r="AA335" t="inlineStr">
+        <is>
+          <t>FA1A75CBF47344A000</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>3566</v>
+        <v>4126</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45726.87599631945</v>
+        <v>45748.02495070602</v>
       </c>
       <c r="E336" t="n">
-        <v>235.95</v>
+        <v>434.1</v>
       </c>
       <c r="F336" t="n">
-        <v>3067.35</v>
+        <v>2604.6</v>
       </c>
       <c r="G336" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H336" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>45748.06796524306</v>
+      </c>
+      <c r="I336" t="n">
+        <v>434.2</v>
+      </c>
       <c r="J336" t="n">
-        <v>0</v>
+        <v>2605.2</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L336" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O336" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P336" t="n">
         <v>1.006</v>
       </c>
       <c r="Q336" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R336" t="n">
-        <v>0</v>
+        <v>-1.500000000000091</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>FA1A5ABCE28304A000</t>
-        </is>
-      </c>
-      <c r="T336" t="inlineStr"/>
+          <t>FA1A75F75D867B2000</t>
+        </is>
+      </c>
+      <c r="T336" t="inlineStr">
+        <is>
+          <t>FA1A75F79C60FB2000</t>
+        </is>
+      </c>
       <c r="U336" t="inlineStr"/>
       <c r="V336" t="inlineStr"/>
-      <c r="W336" t="inlineStr"/>
+      <c r="W336" t="inlineStr">
+        <is>
+          <t>FA1A75F808BA7B2000</t>
+        </is>
+      </c>
       <c r="X336" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y336" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.49,      mv_5m : -1.22, mv_30m : -10.52, mv_60m: -7.15</t>
+          <t>mv :-1.00, mv_2m:1.89,      mv_5m : 6.51, mv_30m : 12.03, mv_60m: 11.07, md_60m: 8</t>
         </is>
       </c>
       <c r="Z336" t="inlineStr">
@@ -31738,82 +32042,96 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA336" t="inlineStr"/>
+      <c r="AA336" t="inlineStr">
+        <is>
+          <t>FA1A75F79D223B2000</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>3567</v>
+        <v>4127</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45726.87606424768</v>
+        <v>45748.02939939815</v>
       </c>
       <c r="E337" t="n">
-        <v>140.92</v>
+        <v>522.4</v>
       </c>
       <c r="F337" t="n">
-        <v>3241.16</v>
+        <v>2612</v>
       </c>
       <c r="G337" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H337" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>45748.08092768519</v>
+      </c>
+      <c r="I337" t="n">
+        <v>522.25</v>
+      </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>2611.25</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L337" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O337" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P337" t="n">
         <v>1.006</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R337" t="n">
-        <v>0</v>
+        <v>-2.85</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>FA1A5ABCE83BFB2000</t>
-        </is>
-      </c>
-      <c r="T337" t="inlineStr"/>
+          <t>FA1A75F8D4EB04A000</t>
+        </is>
+      </c>
+      <c r="T337" t="inlineStr">
+        <is>
+          <t>FA1A75F912A7C4A000</t>
+        </is>
+      </c>
       <c r="U337" t="inlineStr"/>
       <c r="V337" t="inlineStr"/>
-      <c r="W337" t="inlineStr"/>
+      <c r="W337" t="inlineStr">
+        <is>
+          <t>FA1A75FBE0FCC4A000</t>
+        </is>
+      </c>
       <c r="X337" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y337" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.51,      mv_5m : -0.99, mv_30m : -10.87, mv_60m: -7.37</t>
+          <t>mv :-2.74, mv_2m:-1.74,      mv_5m : -2.12, mv_30m : -0.36, mv_60m: -0.47, md_60m: 0</t>
         </is>
       </c>
       <c r="Z337" t="inlineStr">
@@ -31821,55 +32139,61 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA337" t="inlineStr"/>
+      <c r="AA337" t="inlineStr">
+        <is>
+          <t>FA1A75F913697B2000</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>3568</v>
+        <v>4128</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45726.87615194445</v>
+        <v>45748.07487649305</v>
       </c>
       <c r="E338" t="n">
-        <v>91.93000000000001</v>
+        <v>119.798</v>
       </c>
       <c r="F338" t="n">
-        <v>3217.55</v>
+        <v>2755.354</v>
       </c>
       <c r="G338" t="n">
-        <v>1.111</v>
+        <v>1.06</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>45750.37094396991</v>
+      </c>
+      <c r="I338" t="n">
+        <v>117.3</v>
+      </c>
       <c r="J338" t="n">
-        <v>0</v>
+        <v>2697.9</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L338" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N338" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O338" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P338" t="n">
         <v>1.006</v>
@@ -31878,25 +32202,29 @@
         <v>0.45</v>
       </c>
       <c r="R338" t="n">
-        <v>0</v>
+        <v>-59.66399999999972</v>
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>FA1A5ABCEFA544A000</t>
-        </is>
-      </c>
-      <c r="T338" t="inlineStr"/>
+          <t>FA1A7607D2003B2000</t>
+        </is>
+      </c>
+      <c r="T338" t="inlineStr">
+        <is>
+          <t>FA1A76081A2CBB2000</t>
+        </is>
+      </c>
       <c r="U338" t="inlineStr"/>
       <c r="V338" t="inlineStr"/>
       <c r="W338" t="inlineStr"/>
       <c r="X338" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y338" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.95, mv_30m : -11.10, mv_60m: -4.81</t>
+          <t>mv :-0.93, mv_2m:0.07,      mv_5m : 0.10, mv_30m : 0.23, mv_60m: 1.21, md_60m: 1</t>
         </is>
       </c>
       <c r="Z338" t="inlineStr">
@@ -31904,82 +32232,96 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA338" t="inlineStr"/>
+      <c r="AA338" t="inlineStr">
+        <is>
+          <t>FA1A76081ADC84A000</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>3569</v>
+        <v>4129</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45726.87643540509</v>
+        <v>45750.43181418982</v>
       </c>
       <c r="E339" t="n">
-        <v>178.86</v>
+        <v>93.39</v>
       </c>
       <c r="F339" t="n">
-        <v>3219.48</v>
+        <v>840.51</v>
       </c>
       <c r="G339" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H339" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>45751.05976002315</v>
+      </c>
+      <c r="I339" t="n">
+        <v>96</v>
+      </c>
       <c r="J339" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L339" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N339" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O339" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P339" t="n">
         <v>1.006</v>
       </c>
       <c r="Q339" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R339" t="n">
-        <v>0</v>
+        <v>21.42000000000001</v>
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>FA1A5ABD078E3B2000</t>
-        </is>
-      </c>
-      <c r="T339" t="inlineStr"/>
+          <t>FA1A7910A4B2C4A000</t>
+        </is>
+      </c>
+      <c r="T339" t="inlineStr">
+        <is>
+          <t>FA1A79112F4044A000</t>
+        </is>
+      </c>
       <c r="U339" t="inlineStr"/>
       <c r="V339" t="inlineStr"/>
-      <c r="W339" t="inlineStr"/>
+      <c r="W339" t="inlineStr">
+        <is>
+          <t>FA1A7987FF0F7B2000</t>
+        </is>
+      </c>
       <c r="X339" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y339" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -10.99, mv_60m: -1.81</t>
+          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.39, mv_30m : -1.68, mv_60m: -7.57, md_60m: -1</t>
         </is>
       </c>
       <c r="Z339" t="inlineStr">
@@ -31987,55 +32329,61 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA339" t="inlineStr"/>
+      <c r="AA339" t="inlineStr">
+        <is>
+          <t>FA1A79112FFCFB2000</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>3570</v>
+        <v>4130</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45726.87651829861</v>
+        <v>45756.02034188657</v>
       </c>
       <c r="E340" t="n">
-        <v>138.18</v>
+        <v>287.12</v>
       </c>
       <c r="F340" t="n">
-        <v>3178.14</v>
+        <v>861.36</v>
       </c>
       <c r="G340" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>45756.08990780092</v>
+      </c>
+      <c r="I340" t="n">
+        <v>281.13</v>
+      </c>
       <c r="J340" t="n">
-        <v>0</v>
+        <v>843.39</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L340" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N340" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O340" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P340" t="n">
         <v>1.006</v>
@@ -32044,579 +32392,669 @@
         <v>0.45</v>
       </c>
       <c r="R340" t="n">
-        <v>0</v>
+        <v>-20.00000000000003</v>
       </c>
       <c r="S340" t="inlineStr">
         <is>
-          <t>FA1A5ABD0E8984A000</t>
-        </is>
-      </c>
-      <c r="T340" t="inlineStr"/>
+          <t>FA1A80504C4044A000</t>
+        </is>
+      </c>
+      <c r="T340" t="inlineStr">
+        <is>
+          <t>FA1A80508ECC3B2000</t>
+        </is>
+      </c>
       <c r="U340" t="inlineStr"/>
       <c r="V340" t="inlineStr"/>
       <c r="W340" t="inlineStr"/>
       <c r="X340" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y340" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -10.72, mv_60m: -1.73</t>
+          <t>mv :0.19, mv_2m:1.19,      mv_5m : 2.45, mv_30m : 3.30, mv_60m: 1.06, md_60m: -2</t>
         </is>
       </c>
       <c r="Z340" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA340" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA340" t="inlineStr">
+        <is>
+          <t>FA1A80508F517B2000</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>3571</v>
+        <v>4131</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45726.87662087963</v>
+        <v>45757.10832126158</v>
       </c>
       <c r="E341" t="n">
-        <v>586.53</v>
+        <v>316.83</v>
       </c>
       <c r="F341" t="n">
-        <v>2932.65</v>
+        <v>950.49</v>
       </c>
       <c r="G341" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>45757.16757591435</v>
+      </c>
+      <c r="I341" t="n">
+        <v>321.09</v>
+      </c>
       <c r="J341" t="n">
-        <v>0</v>
+        <v>963.27</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L341" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N341" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O341" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P341" t="n">
         <v>1.006</v>
       </c>
       <c r="Q341" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>10.67899999999997</v>
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t>FA1A5ABD173244A000</t>
-        </is>
-      </c>
-      <c r="T341" t="inlineStr"/>
+          <t>FA1A81B6E2A004A000</t>
+        </is>
+      </c>
+      <c r="T341" t="inlineStr">
+        <is>
+          <t>FA1A81B72366BB2000</t>
+        </is>
+      </c>
       <c r="U341" t="inlineStr"/>
       <c r="V341" t="inlineStr"/>
-      <c r="W341" t="inlineStr"/>
+      <c r="W341" t="inlineStr">
+        <is>
+          <t>FA1A81BA788FC4A000</t>
+        </is>
+      </c>
       <c r="X341" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y341" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.87, mv_30m : -13.78, mv_60m: -6.09</t>
+          <t>mv :-0.88, mv_2m:0.12,      mv_5m : 0.53, mv_30m : 1.89, mv_60m: 1.32, md_60m: 1</t>
         </is>
       </c>
       <c r="Z341" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA341" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA341" t="inlineStr">
+        <is>
+          <t>FA1A81B723E9FB2000</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3572</v>
+        <v>4132</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45726.87671978009</v>
+        <v>45757.29387263889</v>
       </c>
       <c r="E342" t="n">
-        <v>327.58</v>
+        <v>26.4893</v>
       </c>
       <c r="F342" t="n">
-        <v>3275.8</v>
+        <v>980.1041</v>
       </c>
       <c r="G342" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="H342" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>45757.78987079861</v>
+      </c>
+      <c r="I342" t="n">
+        <v>26.25</v>
+      </c>
       <c r="J342" t="n">
-        <v>0</v>
+        <v>971.25</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L342" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N342" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O342" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P342" t="n">
         <v>1.006</v>
       </c>
       <c r="Q342" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>-11.09410000000002</v>
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>FA1A5ABD1F8DBB2000</t>
-        </is>
-      </c>
-      <c r="T342" t="inlineStr"/>
+          <t>FA1A81F40A78C4A000</t>
+        </is>
+      </c>
+      <c r="T342" t="inlineStr">
+        <is>
+          <t>FA1A81F461E004A000</t>
+        </is>
+      </c>
       <c r="U342" t="inlineStr"/>
       <c r="V342" t="inlineStr"/>
-      <c r="W342" t="inlineStr"/>
+      <c r="W342" t="inlineStr">
+        <is>
+          <t>FA1A81F4642904A000</t>
+        </is>
+      </c>
       <c r="X342" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y342" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.88, mv_30m : -12.46, mv_60m: -5.24</t>
+          <t>mv :-0.77, mv_2m:0.23,      mv_5m : -1.43, mv_30m : -7.09, mv_60m: -5.48, md_60m: -4</t>
         </is>
       </c>
       <c r="Z342" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA342" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA342" t="inlineStr">
+        <is>
+          <t>FA1A81F4626304A000</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>3573</v>
+        <v>4133</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45726.87679993056</v>
+        <v>45758.34461401621</v>
       </c>
       <c r="E343" t="n">
-        <v>230.51</v>
+        <v>35.81814814814815</v>
       </c>
       <c r="F343" t="n">
-        <v>3227.14</v>
-      </c>
-      <c r="G343" t="n">
-        <v>1.111</v>
-      </c>
+        <v>967.0899999999999</v>
+      </c>
+      <c r="G343" t="inlineStr"/>
       <c r="H343" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>45758.78998167824</v>
+      </c>
+      <c r="I343" t="n">
+        <v>35.93</v>
+      </c>
       <c r="J343" t="n">
-        <v>0</v>
+        <v>970.11</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L343" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N343" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O343" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P343" t="n">
         <v>1.006</v>
       </c>
       <c r="Q343" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R343" t="n">
-        <v>0</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
       <c r="S343" t="inlineStr">
         <is>
-          <t>FA1A5ABD264C3B2000</t>
-        </is>
-      </c>
-      <c r="T343" t="inlineStr"/>
+          <t>FA1A834E5ACEFB2000</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>FA1A834E962EBB2000</t>
+        </is>
+      </c>
       <c r="U343" t="inlineStr"/>
       <c r="V343" t="inlineStr"/>
-      <c r="W343" t="inlineStr"/>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>FA1A83515F25BB2000</t>
+        </is>
+      </c>
       <c r="X343" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y343" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.46,      mv_5m : -0.45, mv_30m : -12.41, mv_60m: -5.13</t>
+          <t>mv :-0.95, mv_2m:-1.21,      mv_5m : -1.23, mv_30m : 6.52, mv_60m: 2.83, md_60m: -3</t>
         </is>
       </c>
       <c r="Z343" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA343" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>FA1A834E96B284A000</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>3574</v>
+        <v>4135</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45726.8769471412</v>
+        <v>45761.89916496527</v>
       </c>
       <c r="E344" t="n">
-        <v>322.36</v>
+        <v>63.49</v>
       </c>
       <c r="F344" t="n">
-        <v>3223.6</v>
+        <v>952.35</v>
       </c>
       <c r="G344" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H344" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>45762.01938324074</v>
+      </c>
+      <c r="I344" t="n">
+        <v>62.85</v>
+      </c>
       <c r="J344" t="n">
-        <v>0</v>
+        <v>942.75</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="L344" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O344" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P344" t="n">
         <v>1.006</v>
       </c>
       <c r="Q344" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>-11.72000000000002</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>FA1A5ABD32CCC4A000</t>
-        </is>
-      </c>
-      <c r="T344" t="inlineStr"/>
+          <t>FA1A87E1E60884A000</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>FA1A87E253C47B2000</t>
+        </is>
+      </c>
       <c r="U344" t="inlineStr"/>
       <c r="V344" t="inlineStr"/>
-      <c r="W344" t="inlineStr"/>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>FA1A87E8A91504A000</t>
+        </is>
+      </c>
       <c r="X344" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y344" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.58,      mv_5m : -0.45, mv_30m : -12.56, mv_60m: -4.04</t>
+          <t>mv :-1.00, mv_2m:0.39,      mv_5m : 0.32, mv_30m : 2.81, mv_60m: 3.00, md_60m: 1</t>
         </is>
       </c>
       <c r="Z344" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA344" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>FA1A87E2543FFB2000</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>3575</v>
+        <v>4137</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45726.87702922454</v>
+        <v>45761.92484070601</v>
       </c>
       <c r="E345" t="n">
-        <v>199.35</v>
+        <v>115.85</v>
       </c>
       <c r="F345" t="n">
-        <v>3189.6</v>
+        <v>926.8</v>
       </c>
       <c r="G345" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
+        <v>45762.01883856481</v>
+      </c>
+      <c r="I345" t="n">
+        <v>115.805</v>
+      </c>
       <c r="J345" t="n">
-        <v>0</v>
+        <v>926.4400000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L345" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O345" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P345" t="n">
         <v>1.006</v>
       </c>
       <c r="Q345" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R345" t="n">
-        <v>0</v>
+        <v>-2.4299999999999</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>FA1A5ABD39A87B2000</t>
-        </is>
-      </c>
-      <c r="T345" t="inlineStr"/>
+          <t>FA1A87EA5C7084A000</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>FA1A87F8A10344A000</t>
+        </is>
+      </c>
       <c r="U345" t="inlineStr"/>
       <c r="V345" t="inlineStr"/>
-      <c r="W345" t="inlineStr"/>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>FA1A87FBD50AC4A000</t>
+        </is>
+      </c>
       <c r="X345" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y345" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.58,      mv_5m : -0.45, mv_30m : -12.96, mv_60m: -4.82</t>
+          <t>mv :6.66, mv_2m:2.86,      mv_5m : 4.46, mv_30m : -1.16, mv_60m: 0.44, md_60m: 0</t>
         </is>
       </c>
       <c r="Z345" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA345" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>FA1A87F8A180C4A000</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>3576</v>
+        <v>4138</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45726.8771290625</v>
+        <v>45761.92555357639</v>
       </c>
       <c r="E346" t="n">
-        <v>509.78</v>
+        <v>79.38</v>
       </c>
       <c r="F346" t="n">
-        <v>3058.68</v>
+        <v>952.5599999999999</v>
       </c>
       <c r="G346" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>45762.01817681713</v>
+      </c>
+      <c r="I346" t="n">
+        <v>79.86499999999999</v>
+      </c>
       <c r="J346" t="n">
-        <v>0</v>
+        <v>958.3799999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L346" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N346" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O346" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P346" t="n">
         <v>1.006</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>3.719999999999936</v>
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t>FA1A5ABD4219FB2000</t>
-        </is>
-      </c>
-      <c r="T346" t="inlineStr"/>
+          <t>FA1A87EA9897C4A000</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0F463B2000</t>
+        </is>
+      </c>
       <c r="U346" t="inlineStr"/>
       <c r="V346" t="inlineStr"/>
-      <c r="W346" t="inlineStr"/>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>FA1A87EB683AC4A000</t>
+        </is>
+      </c>
       <c r="X346" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y346" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.65,      mv_5m : -0.38, mv_30m : -13.22, mv_60m: -4.52</t>
+          <t>mv :6.91, mv_2m:3.01,      mv_5m : 5.57, mv_30m : -0.12, mv_60m: 2.57, md_60m: 2</t>
         </is>
       </c>
       <c r="Z346" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA346" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0FC984A000</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>3577</v>
+        <v>4139</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45726.87719899305</v>
+        <v>45762.03856059028</v>
       </c>
       <c r="E347" t="n">
-        <v>563.97</v>
+        <v>39.936</v>
       </c>
       <c r="F347" t="n">
-        <v>2819.85</v>
+        <v>998.4</v>
       </c>
       <c r="G347" t="n">
-        <v>1.111</v>
+        <v>1.07</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
+        <v>45762.099524375</v>
+      </c>
+      <c r="I347" t="n">
+        <v>39.11</v>
+      </c>
       <c r="J347" t="n">
-        <v>0</v>
+        <v>977.75</v>
       </c>
       <c r="K347" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L347" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N347" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O347" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P347" t="n">
         <v>1.006</v>
@@ -32625,946 +33063,2367 @@
         <v>0.45</v>
       </c>
       <c r="R347" t="n">
-        <v>0</v>
+        <v>-22.85999999999998</v>
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>FA1A5ABD48067B2000</t>
-        </is>
-      </c>
-      <c r="T347" t="inlineStr"/>
+          <t>FA1A880FD79004A000</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>FA1A8810408384A000</t>
+        </is>
+      </c>
       <c r="U347" t="inlineStr"/>
       <c r="V347" t="inlineStr"/>
       <c r="W347" t="inlineStr"/>
       <c r="X347" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y347" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.57,      mv_5m : -0.50, mv_30m : -10.22, mv_60m: -1.52</t>
+          <t>mv :-0.68, mv_2m:0.32,      mv_5m : 0.59, mv_30m : 1.45, mv_60m: 1.20, md_60m: 1</t>
         </is>
       </c>
       <c r="Z347" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA347" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>FA1A8810410804A000</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>3578</v>
+        <v>4140</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45726.87727319444</v>
+        <v>45762.12632922453</v>
       </c>
       <c r="E348" t="n">
-        <v>441.87</v>
+        <v>36.1779</v>
       </c>
       <c r="F348" t="n">
-        <v>3093.09</v>
+        <v>976.8033</v>
       </c>
       <c r="G348" t="n">
-        <v>1.111</v>
+        <v>1.07</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
+        <v>45762.21419508102</v>
+      </c>
+      <c r="I348" t="n">
+        <v>36.2018</v>
+      </c>
       <c r="J348" t="n">
-        <v>0</v>
+        <v>977.4485999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L348" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N348" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O348" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P348" t="n">
         <v>1.006</v>
       </c>
       <c r="Q348" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="R348" t="n">
-        <v>0</v>
+        <v>-1.534700000000094</v>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>FA1A5ABD4E3F7B2000</t>
-        </is>
-      </c>
-      <c r="T348" t="inlineStr"/>
+          <t>FA1A882CC504C4A000</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>FA1A882D12E13B2000</t>
+        </is>
+      </c>
       <c r="U348" t="inlineStr"/>
       <c r="V348" t="inlineStr"/>
-      <c r="W348" t="inlineStr"/>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>FA1A882F6F9B7B2000</t>
+        </is>
+      </c>
       <c r="X348" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y348" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.57,      mv_5m : -0.55, mv_30m : -10.12, mv_60m: -3.60</t>
+          <t>mv :0.62, mv_2m:1.62,      mv_5m : 1.58, mv_30m : 1.78, mv_60m: 1.48, md_60m: 1</t>
         </is>
       </c>
       <c r="Z348" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA348" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>FA1A882D135BFB2000</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>3579</v>
+        <v>4141</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45726.87758883102</v>
+        <v>45762.12896179398</v>
       </c>
       <c r="E349" t="n">
-        <v>254.94</v>
+        <v>34.1099</v>
       </c>
       <c r="F349" t="n">
-        <v>3059.28</v>
+        <v>989.1871000000001</v>
       </c>
       <c r="G349" t="n">
-        <v>1.111</v>
+        <v>1.08</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
+        <v>45762.28196479167</v>
+      </c>
+      <c r="I349" t="n">
+        <v>34.2803</v>
+      </c>
       <c r="J349" t="n">
-        <v>0</v>
+        <v>994.1286999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L349" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N349" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O349" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P349" t="n">
         <v>1.006</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R349" t="n">
-        <v>0</v>
+        <v>2.741599999999766</v>
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>FA1A5ABD68E5BB2000</t>
-        </is>
-      </c>
-      <c r="T349" t="inlineStr"/>
+          <t>FA1A882DA32584A000</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>FA1A882DEFAB44A000</t>
+        </is>
+      </c>
       <c r="U349" t="inlineStr"/>
       <c r="V349" t="inlineStr"/>
-      <c r="W349" t="inlineStr"/>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>FA1A882FA0EF04A000</t>
+        </is>
+      </c>
       <c r="X349" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y349" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.57,      mv_5m : 0.25, mv_30m : -12.51, mv_60m: -6.54</t>
+          <t>mv :-1.55, mv_2m:0.89,      mv_5m : -1.69, mv_30m : 0.56, mv_60m: 4.01, md_60m: 1</t>
         </is>
       </c>
       <c r="Z349" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA349" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>FA1A882DF02B3B2000</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>3580</v>
+        <v>4142</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>BAC</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45726.87766740741</v>
+        <v>45762.18763444445</v>
       </c>
       <c r="E350" t="n">
-        <v>38.37</v>
+        <v>51.1772</v>
       </c>
       <c r="F350" t="n">
-        <v>3299.82</v>
+        <v>972.3668</v>
       </c>
       <c r="G350" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
+        <v>45762.28271696759</v>
+      </c>
+      <c r="I350" t="n">
+        <v>51.3809</v>
+      </c>
       <c r="J350" t="n">
-        <v>0</v>
+        <v>976.2370999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L350" t="n">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N350" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O350" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P350" t="n">
         <v>1.006</v>
       </c>
       <c r="Q350" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R350" t="n">
-        <v>0</v>
+        <v>1.730299999999929</v>
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t>FA1A5ABD6F95FB2000</t>
-        </is>
-      </c>
-      <c r="T350" t="inlineStr"/>
+          <t>FA1A8840F9A144A000</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>FA1A88416209FB2000</t>
+        </is>
+      </c>
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
-      <c r="W350" t="inlineStr"/>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>FA1A884163FEFB2000</t>
+        </is>
+      </c>
       <c r="X350" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y350" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.57,      mv_5m : 0.01, mv_30m : -12.63, mv_60m: -7.11</t>
+          <t>mv :-1.15, mv_2m:-0.15,      mv_5m : 0.09, mv_30m : 1.07, mv_60m: 1.46, md_60m: 3</t>
         </is>
       </c>
       <c r="Z350" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA350" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr">
+        <is>
+          <t>FA1A8841628F04A000</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>3581</v>
+        <v>4143</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45726.87775346065</v>
+        <v>45762.18825421296</v>
       </c>
       <c r="E351" t="n">
-        <v>43.91</v>
+        <v>63.65</v>
       </c>
       <c r="F351" t="n">
-        <v>3293.25</v>
+        <v>954.75</v>
       </c>
       <c r="G351" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
+        <v>45762.2660058912</v>
+      </c>
+      <c r="I351" t="n">
+        <v>63.6413</v>
+      </c>
       <c r="J351" t="n">
-        <v>0</v>
+        <v>954.6195</v>
       </c>
       <c r="K351" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L351" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N351" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O351" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P351" t="n">
         <v>1.006</v>
       </c>
       <c r="Q351" t="n">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="R351" t="n">
-        <v>0</v>
+        <v>-2.271499999999984</v>
       </c>
       <c r="S351" t="inlineStr">
         <is>
-          <t>FA1A5ABD76DCFB2000</t>
-        </is>
-      </c>
-      <c r="T351" t="inlineStr"/>
+          <t>FA1A88412DEAC4A000</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>FA1A8841954704A000</t>
+        </is>
+      </c>
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
-      <c r="W351" t="inlineStr"/>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>FA1A884309063B2000</t>
+        </is>
+      </c>
       <c r="X351" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y351" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.72,      mv_5m : 0.20, mv_30m : -11.93, mv_60m: -5.56</t>
+          <t>mv :-1.04, mv_2m:-0.04,      mv_5m : 0.21, mv_30m : 0.39, mv_60m: 1.01, md_60m: 3</t>
         </is>
       </c>
       <c r="Z351" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA351" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>FA1A884195C5C4A000</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>3582</v>
+        <v>4144</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>MPC</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45726.87786969908</v>
+        <v>45763.02245784722</v>
       </c>
       <c r="E352" t="n">
-        <v>128.95</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F352" t="n">
-        <v>3223.75</v>
+        <v>939.4000000000001</v>
       </c>
       <c r="G352" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
+        <v>45763.07108331018</v>
+      </c>
+      <c r="I352" t="n">
+        <v>85.23999999999999</v>
+      </c>
       <c r="J352" t="n">
-        <v>0</v>
+        <v>937.64</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="L352" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N352" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O352" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P352" t="n">
         <v>1.006</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R352" t="n">
-        <v>0</v>
+        <v>-3.840000000000105</v>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>FA1A5ABD80AFFB2000</t>
-        </is>
-      </c>
-      <c r="T352" t="inlineStr"/>
+          <t>FA1A89541FDB44A000</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>FA1A89546CCFBB2000</t>
+        </is>
+      </c>
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
-      <c r="W352" t="inlineStr"/>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>FA1A895497FC84A000</t>
+        </is>
+      </c>
       <c r="X352" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.32, mv_30m : -12.44, mv_60m: -6.68</t>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.83, mv_30m : -0.76, mv_60m: -0.15, md_60m: -1</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA352" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr">
+        <is>
+          <t>FA1A89546D4BBB2000</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>3583</v>
+        <v>4145</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45726.87794344907</v>
+        <v>45763.10221366898</v>
       </c>
       <c r="E353" t="n">
-        <v>62.57</v>
+        <v>223.6461</v>
       </c>
       <c r="F353" t="n">
-        <v>3253.64</v>
+        <v>894.5844</v>
       </c>
       <c r="G353" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H353" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
+        <v>45763.91211696759</v>
+      </c>
+      <c r="I353" t="n">
+        <v>219.39</v>
+      </c>
       <c r="J353" t="n">
-        <v>0</v>
+        <v>877.5599999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L353" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N353" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O353" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P353" t="n">
         <v>1.006</v>
       </c>
       <c r="Q353" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R353" t="n">
-        <v>0</v>
+        <v>-19.05440000000002</v>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>FA1A5ABD86D584A000</t>
-        </is>
-      </c>
-      <c r="T353" t="inlineStr"/>
+          <t>FA1A896E694D3B2000</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>FA1A896EB49944A000</t>
+        </is>
+      </c>
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
-      <c r="W353" t="inlineStr"/>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>FA1A89BC36F2BB2000</t>
+        </is>
+      </c>
       <c r="X353" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y353" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.32, mv_30m : -12.45, mv_60m: -3.68</t>
+          <t>mv :-0.77, mv_2m:0.23,      mv_5m : 0.79, mv_30m : 0.85, mv_60m: 0.98, md_60m: 1</t>
         </is>
       </c>
       <c r="Z353" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA353" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr">
+        <is>
+          <t>FA1A896EB515BB2000</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3584</v>
+        <v>4146</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45726.87802501157</v>
+        <v>45763.23008152778</v>
       </c>
       <c r="E354" t="n">
-        <v>181.95</v>
+        <v>329.6</v>
       </c>
       <c r="F354" t="n">
-        <v>3275.1</v>
+        <v>988.8000000000001</v>
       </c>
       <c r="G354" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H354" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>45764.02043048611</v>
+      </c>
+      <c r="I354" t="n">
+        <v>331.72</v>
+      </c>
       <c r="J354" t="n">
-        <v>0</v>
+        <v>995.1600000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L354" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N354" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O354" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P354" t="n">
         <v>1.006</v>
       </c>
       <c r="Q354" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R354" t="n">
-        <v>0</v>
+        <v>4.320000000000014</v>
       </c>
       <c r="S354" t="inlineStr">
         <is>
-          <t>FA1A5ABD8DC4C4A000</t>
-        </is>
-      </c>
-      <c r="T354" t="inlineStr"/>
+          <t>FA1A89988E2504A000</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>FA1A8998E492C4A000</t>
+        </is>
+      </c>
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
-      <c r="W354" t="inlineStr"/>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>FA1A8999787E7B2000</t>
+        </is>
+      </c>
       <c r="X354" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y354" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.11,      mv_5m : -0.17, mv_30m : -12.24, mv_60m: -3.07</t>
+          <t>mv :-1.21, mv_2m:-0.21,      mv_5m : -0.02, mv_30m : 1.16, mv_60m: 2.44, md_60m: 4</t>
         </is>
       </c>
       <c r="Z354" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA354" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr">
+        <is>
+          <t>FA1A8998E5107B2000</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>3585</v>
+        <v>4147</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45726.87814689815</v>
+        <v>45764.04038259259</v>
       </c>
       <c r="E355" t="n">
-        <v>93.97</v>
+        <v>69.64</v>
       </c>
       <c r="F355" t="n">
-        <v>3288.95</v>
+        <v>974.96</v>
       </c>
       <c r="G355" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H355" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>45764.14553491898</v>
+      </c>
+      <c r="I355" t="n">
+        <v>68.9207</v>
+      </c>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>964.8897999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L355" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O355" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P355" t="n">
         <v>1.006</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R355" t="n">
-        <v>0</v>
+        <v>-12.17020000000011</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
-          <t>FA1A5ABD980744A000</t>
-        </is>
-      </c>
-      <c r="T355" t="inlineStr"/>
+          <t>FA1A8AA39F49BB2000</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>FA1A8AA402EA84A000</t>
+        </is>
+      </c>
       <c r="U355" t="inlineStr"/>
       <c r="V355" t="inlineStr"/>
-      <c r="W355" t="inlineStr"/>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>FA1A8AA404CE84A000</t>
+        </is>
+      </c>
       <c r="X355" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y355" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.21,      mv_5m : 0.01, mv_30m : -12.25, mv_60m: -3.28</t>
+          <t>mv :-3.89, mv_2m:-2.89,      mv_5m : -6.04, mv_30m : 9.32, mv_60m: 20.09, md_60m: -2</t>
         </is>
       </c>
       <c r="Z355" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA355" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr">
+        <is>
+          <t>FA1A8AA4037244A000</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>3586</v>
+        <v>4148</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45726.87823263889</v>
+        <v>45765.10470579861</v>
       </c>
       <c r="E356" t="n">
-        <v>9.16</v>
+        <v>149.3</v>
       </c>
       <c r="F356" t="n">
-        <v>3297.6</v>
+        <v>895.8000000000001</v>
       </c>
       <c r="G356" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H356" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>45769.06992854166</v>
+      </c>
+      <c r="I356" t="n">
+        <v>147.38</v>
+      </c>
       <c r="J356" t="n">
-        <v>0</v>
+        <v>884.28</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L356" t="n">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O356" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P356" t="n">
         <v>1.006</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R356" t="n">
-        <v>0</v>
+        <v>-13.5700000000001</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
-          <t>FA1A5ABD9F31FB2000</t>
-        </is>
-      </c>
-      <c r="T356" t="inlineStr"/>
+          <t>FA1A8C02699884A000</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>FA1A8C02FB5484A000</t>
+        </is>
+      </c>
       <c r="U356" t="inlineStr"/>
       <c r="V356" t="inlineStr"/>
-      <c r="W356" t="inlineStr"/>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>FA1A8C03A37BBB2000</t>
+        </is>
+      </c>
       <c r="X356" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y356" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.21,      mv_5m : -0.05, mv_30m : -12.19, mv_60m: -3.20</t>
+          <t>mv :-0.72, mv_2m:0.28,      mv_5m : 0.60, mv_30m : 2.88, mv_60m: 2.66, md_60m: 3</t>
         </is>
       </c>
       <c r="Z356" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA356" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA356" t="inlineStr">
+        <is>
+          <t>FA1A8C02FBE27B2000</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>3587</v>
+        <v>4149</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="D357" s="2" t="n">
-        <v>45726.8783094213</v>
+        <v>45765.10794478009</v>
       </c>
       <c r="E357" t="n">
-        <v>72.91</v>
+        <v>209.38</v>
       </c>
       <c r="F357" t="n">
-        <v>3280.95</v>
+        <v>837.52</v>
       </c>
       <c r="G357" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H357" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>45768.81413601852</v>
+      </c>
+      <c r="I357" t="n">
+        <v>206.45</v>
+      </c>
       <c r="J357" t="n">
-        <v>0</v>
+        <v>825.8</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L357" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N357" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O357" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P357" t="n">
         <v>1.006</v>
       </c>
       <c r="Q357" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R357" t="n">
-        <v>0</v>
+        <v>-13.75000000000003</v>
       </c>
       <c r="S357" t="inlineStr">
         <is>
-          <t>FA1A5ABDA5BFBB2000</t>
-        </is>
-      </c>
-      <c r="T357" t="inlineStr"/>
+          <t>FA1A8C037ADD7B2000</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>FA1A8C0449A504A000</t>
+        </is>
+      </c>
       <c r="U357" t="inlineStr"/>
       <c r="V357" t="inlineStr"/>
-      <c r="W357" t="inlineStr"/>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>FA1A8C07753704A000</t>
+        </is>
+      </c>
       <c r="X357" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y357" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.22,      mv_5m : -0.03, mv_30m : -12.10, mv_60m: -2.54</t>
+          <t>mv :2.62, mv_2m:3.62,      mv_5m : 4.77, mv_30m : 55.80, mv_60m: 42.14, md_60m: 35</t>
         </is>
       </c>
       <c r="Z357" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA357" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA357" t="inlineStr">
+        <is>
+          <t>FA1A8C044A3244A000</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>3588</v>
+        <v>4150</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="D358" s="2" t="n">
-        <v>45726.87838375</v>
+        <v>45765.16071565972</v>
       </c>
       <c r="E358" t="n">
-        <v>659.5</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="F358" t="n">
-        <v>3297.5</v>
-      </c>
-      <c r="G358" t="n">
-        <v>1.111</v>
-      </c>
+        <v>940.61</v>
+      </c>
+      <c r="G358" t="inlineStr"/>
       <c r="H358" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>45769.03323783565</v>
+      </c>
+      <c r="I358" t="n">
+        <v>83.78</v>
+      </c>
       <c r="J358" t="n">
-        <v>0</v>
+        <v>921.58</v>
       </c>
       <c r="K358" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="L358" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N358" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O358" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P358" t="n">
         <v>1.006</v>
       </c>
       <c r="Q358" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R358" t="n">
-        <v>0</v>
-      </c>
+        <v>2.99</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
       <c r="S358" t="inlineStr">
         <is>
-          <t>FA1A5ABDABF804A000</t>
-        </is>
-      </c>
-      <c r="T358" t="inlineStr"/>
+          <t>FA1A8C14DF65BB2000</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F233B2000</t>
+        </is>
+      </c>
       <c r="U358" t="inlineStr"/>
       <c r="V358" t="inlineStr"/>
-      <c r="W358" t="inlineStr"/>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>FA1A8C180C0AC4A000</t>
+        </is>
+      </c>
       <c r="X358" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y358" t="inlineStr">
         <is>
-          <t>mv :-0.87, mv_2m:2.22,      mv_5m : 0.14, mv_30m : -11.73, mv_60m: -1.65</t>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.32, mv_30m : 3.17, mv_60m: 0.79, md_60m: -9</t>
         </is>
       </c>
       <c r="Z358" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA358" t="inlineStr"/>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F9D84A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>45765.1879058912</v>
+      </c>
+      <c r="E359" t="n">
+        <v>55.8682</v>
+      </c>
+      <c r="F359" t="n">
+        <v>949.7594</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>45769.03003193287</v>
+      </c>
+      <c r="I359" t="n">
+        <v>54.7223</v>
+      </c>
+      <c r="J359" t="n">
+        <v>930.2791</v>
+      </c>
+      <c r="K359" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L359" t="n">
+        <v>17</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P359" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R359" t="n">
+        <v>-21.60030000000005</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>FA1A8C1DD58F7B2000</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3B94FB2000</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>FA1A8C221FF604A000</t>
+        </is>
+      </c>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y359" t="inlineStr">
+        <is>
+          <t>mv :-1.27, mv_2m:-0.27,      mv_5m : -3.30, mv_30m : 5.17, mv_60m: 21.15, md_60m: 25</t>
+        </is>
+      </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3C0F7B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4152</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>45765.18801103009</v>
+      </c>
+      <c r="E360" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="F360" t="n">
+        <v>995.04</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>45765.30762502315</v>
+      </c>
+      <c r="I360" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J360" t="n">
+        <v>987.5999999999999</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L360" t="n">
+        <v>12</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P360" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R360" t="n">
+        <v>-9.540000000000054</v>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>FA1A8C1DDE6DBB2000</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3D8744A000</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr"/>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3F42BB2000</t>
+        </is>
+      </c>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y360" t="inlineStr">
+        <is>
+          <t>mv :-1.33, mv_2m:-0.33,      mv_5m : -3.88, mv_30m : 4.85, mv_60m: 22.96, md_60m: 27</t>
+        </is>
+      </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3E08BB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4153</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="D361" s="2" t="n">
+        <v>45770.02101043981</v>
+      </c>
+      <c r="E361" t="n">
+        <v>47.11</v>
+      </c>
+      <c r="F361" t="n">
+        <v>989.3099999999999</v>
+      </c>
+      <c r="G361" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H361" s="2" t="n">
+        <v>45771.09658696759</v>
+      </c>
+      <c r="I361" t="n">
+        <v>46.3806</v>
+      </c>
+      <c r="J361" t="n">
+        <v>973.9926</v>
+      </c>
+      <c r="K361" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L361" t="n">
+        <v>21</v>
+      </c>
+      <c r="M361" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N361" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O361" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P361" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q361" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R361" t="n">
+        <v>-17.46739999999991</v>
+      </c>
+      <c r="S361" t="inlineStr">
+        <is>
+          <t>FA1A9256C6EF4AD000</t>
+        </is>
+      </c>
+      <c r="T361" t="inlineStr">
+        <is>
+          <t>FA1A92570F838AD000</t>
+        </is>
+      </c>
+      <c r="U361" t="inlineStr"/>
+      <c r="V361" t="inlineStr"/>
+      <c r="W361" t="inlineStr">
+        <is>
+          <t>FA1A925955508AD000</t>
+        </is>
+      </c>
+      <c r="X361" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y361" t="inlineStr">
+        <is>
+          <t>mv :-0.72, mv_2m:0.35,      mv_5m : 0.68, mv_30m : 0.90, mv_60m: 8.12, md_60m: 8</t>
+        </is>
+      </c>
+      <c r="Z361" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA361" t="inlineStr">
+        <is>
+          <t>FA1A9257102B0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>4154</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="D362" s="2" t="n">
+        <v>45770.02125791667</v>
+      </c>
+      <c r="E362" t="n">
+        <v>122.0959</v>
+      </c>
+      <c r="F362" t="n">
+        <v>976.7672</v>
+      </c>
+      <c r="G362" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H362" s="2" t="n">
+        <v>45771.2230105787</v>
+      </c>
+      <c r="I362" t="n">
+        <v>120.43</v>
+      </c>
+      <c r="J362" t="n">
+        <v>963.4400000000001</v>
+      </c>
+      <c r="K362" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L362" t="n">
+        <v>8</v>
+      </c>
+      <c r="M362" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N362" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O362" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P362" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q362" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R362" t="n">
+        <v>-15.38719999999995</v>
+      </c>
+      <c r="S362" t="inlineStr">
+        <is>
+          <t>FA1A9256DBD257C000</t>
+        </is>
+      </c>
+      <c r="T362" t="inlineStr">
+        <is>
+          <t>FA1A925711D14AD000</t>
+        </is>
+      </c>
+      <c r="U362" t="inlineStr"/>
+      <c r="V362" t="inlineStr"/>
+      <c r="W362" t="inlineStr">
+        <is>
+          <t>FA1A925BAF3117C000</t>
+        </is>
+      </c>
+      <c r="X362" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y362" t="inlineStr">
+        <is>
+          <t>mv :-0.39, mv_2m:0.67,      mv_5m : 0.84, mv_30m : 3.43, mv_60m: 13.19, md_60m: 14</t>
+        </is>
+      </c>
+      <c r="Z362" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA362" t="inlineStr">
+        <is>
+          <t>FA1A9257128097C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>4155</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D363" s="2" t="n">
+        <v>45770.02137131945</v>
+      </c>
+      <c r="E363" t="n">
+        <v>94.63</v>
+      </c>
+      <c r="F363" t="n">
+        <v>946.3</v>
+      </c>
+      <c r="G363" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H363" s="2" t="n">
+        <v>45771.38117634259</v>
+      </c>
+      <c r="I363" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="J363" t="n">
+        <v>945</v>
+      </c>
+      <c r="K363" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L363" t="n">
+        <v>10</v>
+      </c>
+      <c r="M363" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N363" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O363" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P363" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R363" t="n">
+        <v>-3.379999999999955</v>
+      </c>
+      <c r="S363" t="inlineStr">
+        <is>
+          <t>FA1A9256E5640AD000</t>
+        </is>
+      </c>
+      <c r="T363" t="inlineStr">
+        <is>
+          <t>FA1A92570B738AD000</t>
+        </is>
+      </c>
+      <c r="U363" t="inlineStr"/>
+      <c r="V363" t="inlineStr"/>
+      <c r="W363" t="inlineStr">
+        <is>
+          <t>FA1A925A5B4D0AD000</t>
+        </is>
+      </c>
+      <c r="X363" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y363" t="inlineStr">
+        <is>
+          <t>mv :-0.29, mv_2m:0.77,      mv_5m : 0.86, mv_30m : 5.53, mv_60m: 14.74, md_60m: 14</t>
+        </is>
+      </c>
+      <c r="Z363" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA363" t="inlineStr">
+        <is>
+          <t>FA1A92570C2117C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>4156</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="D364" s="2" t="n">
+        <v>45770.02206613426</v>
+      </c>
+      <c r="E364" t="n">
+        <v>107.3696</v>
+      </c>
+      <c r="F364" t="n">
+        <v>966.3264</v>
+      </c>
+      <c r="G364" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H364" s="2" t="n">
+        <v>45771.19231611111</v>
+      </c>
+      <c r="I364" t="n">
+        <v>105.811</v>
+      </c>
+      <c r="J364" t="n">
+        <v>952.2990000000001</v>
+      </c>
+      <c r="K364" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L364" t="n">
+        <v>9</v>
+      </c>
+      <c r="M364" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N364" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O364" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P364" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q364" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R364" t="n">
+        <v>-16.14839999999994</v>
+      </c>
+      <c r="S364" t="inlineStr">
+        <is>
+          <t>FA1A92572001CAD000</t>
+        </is>
+      </c>
+      <c r="T364" t="inlineStr">
+        <is>
+          <t>FA1A925758780AD000</t>
+        </is>
+      </c>
+      <c r="U364" t="inlineStr"/>
+      <c r="V364" t="inlineStr"/>
+      <c r="W364" t="inlineStr">
+        <is>
+          <t>FA1A92595929D7C000</t>
+        </is>
+      </c>
+      <c r="X364" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y364" t="inlineStr">
+        <is>
+          <t>mv :-0.08, mv_2m:0.21,      mv_5m : 0.31, mv_30m : 0.83, mv_60m: 9.29, md_60m: 10</t>
+        </is>
+      </c>
+      <c r="Z364" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA364" t="inlineStr">
+        <is>
+          <t>FA1A9257592097C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>4157</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D365" s="2" t="n">
+        <v>45770.05910172454</v>
+      </c>
+      <c r="E365" t="n">
+        <v>59.3895</v>
+      </c>
+      <c r="F365" t="n">
+        <v>950.232</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H365" s="2" t="n">
+        <v>45772.02092116898</v>
+      </c>
+      <c r="I365" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="J365" t="n">
+        <v>930.4</v>
+      </c>
+      <c r="K365" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L365" t="n">
+        <v>16</v>
+      </c>
+      <c r="M365" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N365" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O365" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P365" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q365" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R365" t="n">
+        <v>-21.95199999999999</v>
+      </c>
+      <c r="S365" t="inlineStr">
+        <is>
+          <t>FA1A926354E20AD000</t>
+        </is>
+      </c>
+      <c r="T365" t="inlineStr">
+        <is>
+          <t>FA1A926395D817C000</t>
+        </is>
+      </c>
+      <c r="U365" t="inlineStr"/>
+      <c r="V365" t="inlineStr"/>
+      <c r="W365" t="inlineStr">
+        <is>
+          <t>FA1A9265C7C897C000</t>
+        </is>
+      </c>
+      <c r="X365" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y365" t="inlineStr">
+        <is>
+          <t>mv :-0.85, mv_2m:0.15,      mv_5m : 1.72, mv_30m : 0.40, mv_60m: 7.97, md_60m: 6</t>
+        </is>
+      </c>
+      <c r="Z365" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA365" t="inlineStr">
+        <is>
+          <t>FA1A9263967E0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>4158</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D366" s="2" t="n">
+        <v>45771.12648251157</v>
+      </c>
+      <c r="E366" t="n">
+        <v>179.31</v>
+      </c>
+      <c r="F366" t="n">
+        <v>896.55</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H366" s="2" t="n">
+        <v>45771.2336469213</v>
+      </c>
+      <c r="I366" t="n">
+        <v>178.5239</v>
+      </c>
+      <c r="J366" t="n">
+        <v>892.6195</v>
+      </c>
+      <c r="K366" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L366" t="n">
+        <v>5</v>
+      </c>
+      <c r="M366" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N366" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O366" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P366" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q366" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R366" t="n">
+        <v>-5.980499999999938</v>
+      </c>
+      <c r="S366" t="inlineStr">
+        <is>
+          <t>FA1A93C3212117C000</t>
+        </is>
+      </c>
+      <c r="T366" t="inlineStr">
+        <is>
+          <t>FA1A93C397328AD000</t>
+        </is>
+      </c>
+      <c r="U366" t="inlineStr"/>
+      <c r="V366" t="inlineStr"/>
+      <c r="W366" t="inlineStr">
+        <is>
+          <t>FA1A93C3E4BC0AD000</t>
+        </is>
+      </c>
+      <c r="X366" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y366" t="inlineStr">
+        <is>
+          <t>mv :3.47, mv_2m:-0.76,      mv_5m : -0.25, mv_30m : 4.70, mv_60m: 4.04, md_60m: -3</t>
+        </is>
+      </c>
+      <c r="Z366" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA366" t="inlineStr">
+        <is>
+          <t>FA1A93C397DAD7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4159</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D367" s="2" t="n">
+        <v>45772.02629008102</v>
+      </c>
+      <c r="E367" t="n">
+        <v>317.9321</v>
+      </c>
+      <c r="F367" t="n">
+        <v>953.7963</v>
+      </c>
+      <c r="G367" t="n">
+        <v>1</v>
+      </c>
+      <c r="H367" s="2" t="n">
+        <v>45773.01856864584</v>
+      </c>
+      <c r="I367" t="n">
+        <v>317.56</v>
+      </c>
+      <c r="J367" t="n">
+        <v>952.6800000000001</v>
+      </c>
+      <c r="K367" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L367" t="n">
+        <v>3</v>
+      </c>
+      <c r="M367" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N367" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O367" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P367" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q367" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R367" t="n">
+        <v>-3.15629999999991</v>
+      </c>
+      <c r="S367" t="inlineStr">
+        <is>
+          <t>FA1A94EBB25E17C000</t>
+        </is>
+      </c>
+      <c r="T367" t="inlineStr">
+        <is>
+          <t>FA1A94EBE8D317C000</t>
+        </is>
+      </c>
+      <c r="U367" t="inlineStr"/>
+      <c r="V367" t="inlineStr"/>
+      <c r="W367" t="inlineStr">
+        <is>
+          <t>FA1A9625DDC097C000</t>
+        </is>
+      </c>
+      <c r="X367" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y367" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:-0.00,mv_5m : 0.54, mv_30m : 5.16, mv_60m: 7.45, md_60m: 6c1: 1, c2: 1, c3: 1,  c5: 0, c6: 0, c7: 0,  c8: 0, c9: 1, c10: 1,  c11: 0, c12: 1</t>
+        </is>
+      </c>
+      <c r="Z367" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA367" t="inlineStr">
+        <is>
+          <t>FA1A94EBE97B97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="D368" s="2" t="n">
+        <v>45772.11129081019</v>
+      </c>
+      <c r="E368" t="n">
+        <v>265.415</v>
+      </c>
+      <c r="F368" t="n">
+        <v>796.2450000000001</v>
+      </c>
+      <c r="G368" t="n">
+        <v>1</v>
+      </c>
+      <c r="H368" s="2" t="n">
+        <v>45772.20490108796</v>
+      </c>
+      <c r="I368" t="n">
+        <v>263.81</v>
+      </c>
+      <c r="J368" t="n">
+        <v>791.4300000000001</v>
+      </c>
+      <c r="K368" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L368" t="n">
+        <v>3</v>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N368" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O368" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P368" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R368" t="n">
+        <v>-6.845000000000055</v>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>FA1A9507B64B57C000</t>
+        </is>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>FA1A9507E1C0CAD000</t>
+        </is>
+      </c>
+      <c r="U368" t="inlineStr"/>
+      <c r="V368" t="inlineStr"/>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>FA1A950A72FC4AD000</t>
+        </is>
+      </c>
+      <c r="X368" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y368" t="inlineStr">
+        <is>
+          <t>mv :-1.49, mv_2m:-0.48,mv_5m : 0.25, mv_30m : 12.03, mv_60m: 9.84, md_60m: 3c1: 1, c2: 1, c3: 1,  c5: 0, c6: 1, c7: 0,  c8: 0, c9: 1, c10: 0,  c11: 0, c12: 1</t>
+        </is>
+      </c>
+      <c r="Z368" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA368" t="inlineStr">
+        <is>
+          <t>FA1A9507E26D0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>4161</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="D369" s="2" t="n">
+        <v>45772.26291040509</v>
+      </c>
+      <c r="E369" t="n">
+        <v>186.68</v>
+      </c>
+      <c r="F369" t="n">
+        <v>933.4000000000001</v>
+      </c>
+      <c r="G369" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H369" s="2" t="n">
+        <v>45773.20227228009</v>
+      </c>
+      <c r="I369" t="n">
+        <v>182.77</v>
+      </c>
+      <c r="J369" t="n">
+        <v>913.85</v>
+      </c>
+      <c r="K369" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L369" t="n">
+        <v>5</v>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N369" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O369" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P369" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R369" t="n">
+        <v>-21.61000000000007</v>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>FA1A9539AF3D4AD000</t>
+        </is>
+      </c>
+      <c r="T369" t="inlineStr">
+        <is>
+          <t>FA1A9539D9D84AD000</t>
+        </is>
+      </c>
+      <c r="U369" t="inlineStr"/>
+      <c r="V369" t="inlineStr"/>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t>FA1A953B02070AD000</t>
+        </is>
+      </c>
+      <c r="X369" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y369" t="inlineStr">
+        <is>
+          <t>mv :-0.66, mv_2m:0.62,mv_5m : 0.18, mv_30m : 3.40, mv_60m: 8.12, md_60m: 7c1: 1, c2: 1, c3: 0,  c5: 0, c6: 0, c7: 0,  c8: 0, c9: 1, c10: 0,  c11: 1, c12: 1</t>
+        </is>
+      </c>
+      <c r="Z369" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA369" t="inlineStr">
+        <is>
+          <t>FA1A9539DA8D0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>4162</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D370" s="2" t="n">
+        <v>45772.26493561343</v>
+      </c>
+      <c r="E370" t="n">
+        <v>48.9695</v>
+      </c>
+      <c r="F370" t="n">
+        <v>979.3899999999999</v>
+      </c>
+      <c r="G370" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H370" s="2" t="n">
+        <v>45773.20300238426</v>
+      </c>
+      <c r="I370" t="n">
+        <v>47.9532</v>
+      </c>
+      <c r="J370" t="n">
+        <v>959.0640000000001</v>
+      </c>
+      <c r="K370" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L370" t="n">
+        <v>20</v>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N370" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O370" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P370" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R370" t="n">
+        <v>-22.4659999999998</v>
+      </c>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>FA1A953A5A1BCAD000</t>
+        </is>
+      </c>
+      <c r="T370" t="inlineStr">
+        <is>
+          <t>FA1A953A9F7AD7C000</t>
+        </is>
+      </c>
+      <c r="U370" t="inlineStr"/>
+      <c r="V370" t="inlineStr"/>
+      <c r="W370" t="inlineStr"/>
+      <c r="X370" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y370" t="inlineStr">
+        <is>
+          <t>mv :-0.28, mv_2m:0.41,mv_5m : -3.57, mv_30m : 4.32, mv_60m: 11.43, md_60m: 14c1: 1, c2: 1, c3: 0,  c5: 0, c6: 0, c7: 0,  c8: 0, c9: 1, c10: 0,  c11: 1, c12: 1</t>
+        </is>
+      </c>
+      <c r="Z370" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA370" t="inlineStr">
+        <is>
+          <t>FA1A953AA02F0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>4163</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="D371" s="2" t="n">
+        <v>45773.20092420139</v>
+      </c>
+      <c r="E371" t="n">
+        <v>693.3</v>
+      </c>
+      <c r="F371" t="n">
+        <v>693.3</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H371" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>0</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N371" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O371" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P371" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R371" t="n">
+        <v>0</v>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>FA1A966ED7FAD7C000</t>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>FA1A966F2CC097C000</t>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>FA1A967104C317C000</t>
+        </is>
+      </c>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t>mv :-1.06, mv_2m:-0.06,mv_5m : -0.05, mv_30m : 0.39, mv_60m: 0.70, md_60m: -3c1: 1, c2: 1, c3: 1,  c5: 0, c6: 1, c7: 0,  c8: 0, c9: 1, c10: 0,  c11: 0, c12: 1, c13: 0</t>
+        </is>
+      </c>
+      <c r="Z371" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA371" t="inlineStr">
+        <is>
+          <t>FA1A966F2D7357C000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
